--- a/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9889293406784172</v>
+        <v>1.024464105313133</v>
       </c>
       <c r="D2">
-        <v>1.009973901093316</v>
+        <v>1.042543189385098</v>
       </c>
       <c r="E2">
-        <v>0.9963214991581444</v>
+        <v>1.036537895191067</v>
       </c>
       <c r="F2">
-        <v>1.002418616640764</v>
+        <v>1.046364360543637</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041716486657962</v>
+        <v>1.058114160865996</v>
       </c>
       <c r="J2">
-        <v>1.011446291574156</v>
+        <v>1.045936933554358</v>
       </c>
       <c r="K2">
-        <v>1.021296010668041</v>
+        <v>1.053440017225033</v>
       </c>
       <c r="L2">
-        <v>1.007832320350364</v>
+        <v>1.047510628032194</v>
       </c>
       <c r="M2">
-        <v>1.013844358820614</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.05721345510847</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9985183610865173</v>
+        <v>1.031803404056873</v>
       </c>
       <c r="D3">
-        <v>1.017432675362654</v>
+        <v>1.048386921678069</v>
       </c>
       <c r="E3">
-        <v>1.004717507171449</v>
+        <v>1.042810523259602</v>
       </c>
       <c r="F3">
-        <v>1.01159182650628</v>
+        <v>1.052902023163317</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045261384782713</v>
+        <v>1.060599459748421</v>
       </c>
       <c r="J3">
-        <v>1.019049498727641</v>
+        <v>1.05146308701159</v>
       </c>
       <c r="K3">
-        <v>1.027847256875227</v>
+        <v>1.058435967863139</v>
       </c>
       <c r="L3">
-        <v>1.015290380381944</v>
+        <v>1.052923440658203</v>
       </c>
       <c r="M3">
-        <v>1.022078505479638</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.062899964762109</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004481472929837</v>
+        <v>1.0364166537211</v>
       </c>
       <c r="D4">
-        <v>1.022073720903741</v>
+        <v>1.052061298176297</v>
       </c>
       <c r="E4">
-        <v>1.009940086846916</v>
+        <v>1.046758653564444</v>
       </c>
       <c r="F4">
-        <v>1.017304428551398</v>
+        <v>1.057016887746712</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047449397651685</v>
+        <v>1.062146162036224</v>
       </c>
       <c r="J4">
-        <v>1.023771232751504</v>
+        <v>1.054932562866238</v>
       </c>
       <c r="K4">
-        <v>1.031912839663895</v>
+        <v>1.061569510427294</v>
       </c>
       <c r="L4">
-        <v>1.019920006026271</v>
+        <v>1.056323687293437</v>
       </c>
       <c r="M4">
-        <v>1.027198395829554</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.066472627690943</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006934731262945</v>
+        <v>1.038325312483853</v>
       </c>
       <c r="D5">
-        <v>1.02398354315986</v>
+        <v>1.053581699512485</v>
       </c>
       <c r="E5">
-        <v>1.012088902707673</v>
+        <v>1.048393330703524</v>
       </c>
       <c r="F5">
-        <v>1.019656446450891</v>
+        <v>1.05872057828633</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048345527380321</v>
+        <v>1.062782305932727</v>
       </c>
       <c r="J5">
-        <v>1.025712147312397</v>
+        <v>1.056366959821729</v>
       </c>
       <c r="K5">
-        <v>1.033583308814121</v>
+        <v>1.062864264786606</v>
       </c>
       <c r="L5">
-        <v>1.02182258493416</v>
+        <v>1.057729916757877</v>
       </c>
       <c r="M5">
-        <v>1.029304483799572</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.067950274294186</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007343612530496</v>
+        <v>1.038644029747968</v>
       </c>
       <c r="D6">
-        <v>1.024301873637248</v>
+        <v>1.053835591816569</v>
       </c>
       <c r="E6">
-        <v>1.012447052705562</v>
+        <v>1.048666365452491</v>
       </c>
       <c r="F6">
-        <v>1.020048558111978</v>
+        <v>1.059005138861223</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048494644560947</v>
+        <v>1.062888308238111</v>
       </c>
       <c r="J6">
-        <v>1.026035538520892</v>
+        <v>1.056606419384658</v>
       </c>
       <c r="K6">
-        <v>1.03386159497596</v>
+        <v>1.063080367129602</v>
       </c>
       <c r="L6">
-        <v>1.022139560844332</v>
+        <v>1.057964700487995</v>
       </c>
       <c r="M6">
-        <v>1.029655484273175</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.068196988237604</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004514459024592</v>
+        <v>1.036442275932218</v>
       </c>
       <c r="D7">
-        <v>1.022099398401139</v>
+        <v>1.05208170773265</v>
       </c>
       <c r="E7">
-        <v>1.009968978738619</v>
+        <v>1.046780593146974</v>
       </c>
       <c r="F7">
-        <v>1.017336046308252</v>
+        <v>1.05703975366658</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047461462953823</v>
+        <v>1.06215471679842</v>
       </c>
       <c r="J7">
-        <v>1.023797336542468</v>
+        <v>1.054951822702907</v>
       </c>
       <c r="K7">
-        <v>1.031935309114981</v>
+        <v>1.061586898289125</v>
       </c>
       <c r="L7">
-        <v>1.019945596112303</v>
+        <v>1.056342567134665</v>
       </c>
       <c r="M7">
-        <v>1.027226715108347</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.066492465933547</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9922227218725742</v>
+        <v>1.026973667573913</v>
       </c>
       <c r="D8">
-        <v>1.01253496434371</v>
+        <v>1.044541050463285</v>
       </c>
       <c r="E8">
-        <v>0.9992047734915801</v>
+        <v>1.038681542279944</v>
       </c>
       <c r="F8">
-        <v>1.005567396089163</v>
+        <v>1.048598599503419</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042937433582339</v>
+        <v>1.058967193942189</v>
       </c>
       <c r="J8">
-        <v>1.014058957235745</v>
+        <v>1.047827340672919</v>
       </c>
       <c r="K8">
-        <v>1.023547776958692</v>
+        <v>1.055149681305451</v>
       </c>
       <c r="L8">
-        <v>1.01039552741113</v>
+        <v>1.049361850186925</v>
       </c>
       <c r="M8">
-        <v>1.01667247789775</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.059158178611241</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9684926086247324</v>
+        <v>1.009162059141439</v>
       </c>
       <c r="D9">
-        <v>0.9941016143032442</v>
+        <v>1.030370931630666</v>
       </c>
       <c r="E9">
-        <v>0.9784412014263828</v>
+        <v>1.023494008696722</v>
       </c>
       <c r="F9">
-        <v>0.9829205716882137</v>
+        <v>1.032768898984924</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034071456069211</v>
+        <v>1.052848906769038</v>
       </c>
       <c r="J9">
-        <v>0.9952092283671468</v>
+        <v>1.034395378790815</v>
       </c>
       <c r="K9">
-        <v>1.007291119130685</v>
+        <v>1.042989756305445</v>
       </c>
       <c r="L9">
-        <v>0.9918940154373914</v>
+        <v>1.036217074583356</v>
       </c>
       <c r="M9">
-        <v>0.9962969651735604</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.045351790273705</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9509114712680931</v>
+        <v>0.9963938357353826</v>
       </c>
       <c r="D10">
-        <v>0.9804822163380913</v>
+        <v>1.020231204775616</v>
       </c>
       <c r="E10">
-        <v>0.9630806426381634</v>
+        <v>1.012646334296736</v>
       </c>
       <c r="F10">
-        <v>0.9662036801398521</v>
+        <v>1.021462166946733</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027419260691403</v>
+        <v>1.048384677112915</v>
       </c>
       <c r="J10">
-        <v>0.9812177929003846</v>
+        <v>1.02475126428726</v>
       </c>
       <c r="K10">
-        <v>0.9952130449784632</v>
+        <v>1.03424454000855</v>
       </c>
       <c r="L10">
-        <v>0.9781500933147478</v>
+        <v>1.026790948636127</v>
       </c>
       <c r="M10">
-        <v>0.9812111790638377</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.035454434213991</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9427747835148564</v>
+        <v>0.9906174901214748</v>
       </c>
       <c r="D11">
-        <v>0.9741923989421934</v>
+        <v>1.015650341183755</v>
       </c>
       <c r="E11">
-        <v>0.9559801329178317</v>
+        <v>1.007750008021025</v>
       </c>
       <c r="F11">
-        <v>0.9584848205028401</v>
+        <v>1.016358554262117</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024322674249932</v>
+        <v>1.046347676356206</v>
       </c>
       <c r="J11">
-        <v>0.9747384273639043</v>
+        <v>1.020385869512037</v>
       </c>
       <c r="K11">
-        <v>0.9896179910669509</v>
+        <v>1.030283029418137</v>
       </c>
       <c r="L11">
-        <v>0.971782850069</v>
+        <v>1.022527235681357</v>
       </c>
       <c r="M11">
-        <v>0.9742345477395649</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.030978428181089</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9396623198776899</v>
+        <v>0.9884312000269039</v>
       </c>
       <c r="D12">
-        <v>0.9717888685621089</v>
+        <v>1.013917679754488</v>
       </c>
       <c r="E12">
-        <v>0.95326562887375</v>
+        <v>1.005898645272122</v>
       </c>
       <c r="F12">
-        <v>0.9555351994492884</v>
+        <v>1.014428802829447</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023135680512183</v>
+        <v>1.04557419673129</v>
       </c>
       <c r="J12">
-        <v>0.9722595537743355</v>
+        <v>1.01873337249212</v>
       </c>
       <c r="K12">
-        <v>0.9874772701037562</v>
+        <v>1.02878300974549</v>
       </c>
       <c r="L12">
-        <v>0.9693465114305846</v>
+        <v>1.020913702413085</v>
       </c>
       <c r="M12">
-        <v>0.9715669075103766</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.029284693992024</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9403342430284158</v>
+        <v>0.988902069427397</v>
       </c>
       <c r="D13">
-        <v>0.9723076268969413</v>
+        <v>1.014290794169436</v>
       </c>
       <c r="E13">
-        <v>0.9538515620117846</v>
+        <v>1.006297293740822</v>
       </c>
       <c r="F13">
-        <v>0.9561718261016962</v>
+        <v>1.014844330982663</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023392038454448</v>
+        <v>1.045740894501045</v>
       </c>
       <c r="J13">
-        <v>0.9727947091715409</v>
+        <v>1.019089285537593</v>
       </c>
       <c r="K13">
-        <v>0.9879394287078814</v>
+        <v>1.029106100243576</v>
       </c>
       <c r="L13">
-        <v>0.9698725000582076</v>
+        <v>1.021261201801385</v>
       </c>
       <c r="M13">
-        <v>0.9721427476813501</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.029649459509433</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.942519419856053</v>
+        <v>0.9904376227523883</v>
       </c>
       <c r="D14">
-        <v>0.9739951473549692</v>
+        <v>1.01550776957837</v>
       </c>
       <c r="E14">
-        <v>0.9557573856676042</v>
+        <v>1.007597656780826</v>
       </c>
       <c r="F14">
-        <v>0.9582427543177269</v>
+        <v>1.016199752524958</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02422533553963</v>
+        <v>1.046284091610283</v>
       </c>
       <c r="J14">
-        <v>0.9745350529600506</v>
+        <v>1.020249921688497</v>
       </c>
       <c r="K14">
-        <v>0.9894423625062554</v>
+        <v>1.030159633707311</v>
       </c>
       <c r="L14">
-        <v>0.9715829725464834</v>
+        <v>1.022394483622079</v>
       </c>
       <c r="M14">
-        <v>0.9740156561956133</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.030839074807089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9438534524524611</v>
+        <v>0.9913782227209625</v>
       </c>
       <c r="D15">
-        <v>0.9750257022053171</v>
+        <v>1.016253382736009</v>
       </c>
       <c r="E15">
-        <v>0.9569210952693922</v>
+        <v>1.008394439867802</v>
       </c>
       <c r="F15">
-        <v>0.9595074443220281</v>
+        <v>1.017030270679055</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024733738819577</v>
+        <v>1.04661650155868</v>
       </c>
       <c r="J15">
-        <v>0.9755974774905293</v>
+        <v>1.02096083949587</v>
       </c>
       <c r="K15">
-        <v>0.9903598370663776</v>
+        <v>1.030804895760917</v>
       </c>
       <c r="L15">
-        <v>0.9726271149336786</v>
+        <v>1.023088709017561</v>
       </c>
       <c r="M15">
-        <v>0.9751592020723557</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.03156782736691</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9514395164342546</v>
+        <v>0.9967716872996332</v>
       </c>
       <c r="D16">
-        <v>0.9808907154149673</v>
+        <v>1.020531003001827</v>
       </c>
       <c r="E16">
-        <v>0.9635416425075665</v>
+        <v>1.012966865643508</v>
       </c>
       <c r="F16">
-        <v>0.9667050016699859</v>
+        <v>1.021796266427066</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027619868995088</v>
+        <v>1.048517574433958</v>
       </c>
       <c r="J16">
-        <v>0.9816382190075478</v>
+        <v>1.025036780828306</v>
       </c>
       <c r="K16">
-        <v>0.9955760625385263</v>
+        <v>1.034503581872083</v>
       </c>
       <c r="L16">
-        <v>0.9785631940353864</v>
+        <v>1.027069878669429</v>
       </c>
       <c r="M16">
-        <v>0.9816640700035104</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.03574727085822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,81 +991,75 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9560504357196673</v>
+        <v>1.000086237791202</v>
       </c>
       <c r="D17">
-        <v>0.9844592848559226</v>
+        <v>1.023161600116304</v>
       </c>
       <c r="E17">
-        <v>0.9675680950179397</v>
+        <v>1.015779876060066</v>
       </c>
       <c r="F17">
-        <v>0.9710845905036598</v>
+        <v>1.024728342900102</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0293696179168</v>
+        <v>1.049681413727722</v>
       </c>
       <c r="J17">
-        <v>0.9853089775144296</v>
+        <v>1.027541102411355</v>
       </c>
       <c r="K17">
-        <v>0.9987453986939587</v>
+        <v>1.036775354721156</v>
       </c>
       <c r="L17">
-        <v>0.9821697168849399</v>
+        <v>1.029516770462894</v>
       </c>
       <c r="M17">
-        <v>0.9856193457601162</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.038316255149532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9586902380683084</v>
+        <v>1.00199592559084</v>
       </c>
       <c r="D18">
-        <v>0.986503534149628</v>
+        <v>1.024677809172054</v>
       </c>
       <c r="E18">
-        <v>0.969874045612262</v>
+        <v>1.017401637051402</v>
       </c>
       <c r="F18">
-        <v>0.9735935834372925</v>
+        <v>1.026418740326891</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030369695253443</v>
+        <v>1.050350321454848</v>
       </c>
       <c r="J18">
-        <v>0.9874101382352529</v>
+        <v>1.028983740745039</v>
       </c>
       <c r="K18">
-        <v>1.000559373157059</v>
+        <v>1.038083746455629</v>
       </c>
       <c r="L18">
-        <v>0.9842338760398722</v>
+        <v>1.030926607108661</v>
       </c>
       <c r="M18">
-        <v>0.9878842442624008</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.039796518397264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9595822270121664</v>
+        <v>1.00264317020868</v>
       </c>
       <c r="D19">
-        <v>0.9871944778688602</v>
+        <v>1.025191786663863</v>
       </c>
       <c r="E19">
-        <v>0.9706533468484648</v>
+        <v>1.01795146664731</v>
       </c>
       <c r="F19">
-        <v>0.9744416396513501</v>
+        <v>1.026991838563404</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030707331931846</v>
+        <v>1.050576750563313</v>
       </c>
       <c r="J19">
-        <v>0.9881200481543978</v>
+        <v>1.029472646676314</v>
       </c>
       <c r="K19">
-        <v>1.001172221376298</v>
+        <v>1.038527107193904</v>
       </c>
       <c r="L19">
-        <v>0.9849312445723408</v>
+        <v>1.031404443792918</v>
       </c>
       <c r="M19">
-        <v>0.9886496233941524</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.040298238128153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9555609401875348</v>
+        <v>0.9997330862605095</v>
       </c>
       <c r="D20">
-        <v>0.9840803169037458</v>
+        <v>1.022881259059074</v>
       </c>
       <c r="E20">
-        <v>0.9671405650730045</v>
+        <v>1.015480052614891</v>
       </c>
       <c r="F20">
-        <v>0.9706194811134329</v>
+        <v>1.024415829646304</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029184037416591</v>
+        <v>1.049557581323153</v>
       </c>
       <c r="J20">
-        <v>0.9849193285831789</v>
+        <v>1.027274300863451</v>
       </c>
       <c r="K20">
-        <v>0.9984089924989671</v>
+        <v>1.03653335740847</v>
       </c>
       <c r="L20">
-        <v>0.9817869106943675</v>
+        <v>1.029256057909489</v>
       </c>
       <c r="M20">
-        <v>0.9851994036474598</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.038042525451653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9418785319562964</v>
+        <v>0.9899865943791197</v>
       </c>
       <c r="D21">
-        <v>0.97350014493551</v>
+        <v>1.015150281806289</v>
       </c>
       <c r="E21">
-        <v>0.9551983822382927</v>
+        <v>1.00721565711786</v>
       </c>
       <c r="F21">
-        <v>0.9576352887488089</v>
+        <v>1.015801578958857</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023981004918102</v>
+        <v>1.046124609292786</v>
       </c>
       <c r="J21">
-        <v>0.9740246377388867</v>
+        <v>1.019909020860852</v>
       </c>
       <c r="K21">
-        <v>0.9890015795906306</v>
+        <v>1.029850201915117</v>
       </c>
       <c r="L21">
-        <v>0.9710813278359978</v>
+        <v>1.022061604121118</v>
       </c>
       <c r="M21">
-        <v>0.9734663209737185</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.030489644575765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9327467550806851</v>
+        <v>0.983621044070866</v>
       </c>
       <c r="D22">
-        <v>0.9664536379524491</v>
+        <v>1.010107932042476</v>
       </c>
       <c r="E22">
-        <v>0.9472376754857161</v>
+        <v>1.001828996026025</v>
       </c>
       <c r="F22">
-        <v>0.9489874729924684</v>
+        <v>1.010186821185648</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020493974457671</v>
+        <v>1.043867966605898</v>
       </c>
       <c r="J22">
-        <v>0.9667513695320997</v>
+        <v>1.015097347339801</v>
       </c>
       <c r="K22">
-        <v>0.9827202916304673</v>
+        <v>1.025481773523375</v>
       </c>
       <c r="L22">
-        <v>0.9639321952361347</v>
+        <v>1.017364307014669</v>
       </c>
       <c r="M22">
-        <v>0.9656420741371219</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.025559140715083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9376423330468573</v>
+        <v>0.9870193490184687</v>
       </c>
       <c r="D23">
-        <v>0.9702297391824206</v>
+        <v>1.012799121471455</v>
       </c>
       <c r="E23">
-        <v>0.9515044150688916</v>
+        <v>1.004703626199852</v>
       </c>
       <c r="F23">
-        <v>0.9536217950146696</v>
+        <v>1.013183182395406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022364652153322</v>
+        <v>1.045074015441924</v>
       </c>
       <c r="J23">
-        <v>0.9706506945465017</v>
+        <v>1.017666180973542</v>
       </c>
       <c r="K23">
-        <v>0.9860878479849561</v>
+        <v>1.027814178432961</v>
       </c>
       <c r="L23">
-        <v>0.9677651592200025</v>
+        <v>1.019871809922885</v>
       </c>
       <c r="M23">
-        <v>0.9698359567785192</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.02819105418128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9557822748002665</v>
+        <v>0.9998927330113644</v>
       </c>
       <c r="D24">
-        <v>0.9842516706758977</v>
+        <v>1.023007989090308</v>
       </c>
       <c r="E24">
-        <v>0.9673338784300123</v>
+        <v>1.015615588501392</v>
       </c>
       <c r="F24">
-        <v>0.9708297840211398</v>
+        <v>1.024557102014352</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02926795635702</v>
+        <v>1.049613566483078</v>
       </c>
       <c r="J24">
-        <v>0.9850955169056954</v>
+        <v>1.027394912714545</v>
       </c>
       <c r="K24">
-        <v>0.9985611064839833</v>
+        <v>1.036642757000822</v>
       </c>
       <c r="L24">
-        <v>0.9819600056473571</v>
+        <v>1.029373916262176</v>
       </c>
       <c r="M24">
-        <v>0.985389286963825</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.038166268118524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9749069546089694</v>
+        <v>1.013913417023069</v>
       </c>
       <c r="D25">
-        <v>0.9990791820418188</v>
+        <v>1.034148429587309</v>
       </c>
       <c r="E25">
-        <v>0.9840507162972871</v>
+        <v>1.027539187457137</v>
       </c>
       <c r="F25">
-        <v>0.9890326581900317</v>
+        <v>1.036985188263345</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036482505108606</v>
+        <v>1.05449470120658</v>
       </c>
       <c r="J25">
-        <v>1.000309349167581</v>
+        <v>1.037981443389451</v>
       </c>
       <c r="K25">
-        <v>1.011691809360937</v>
+        <v>1.046238793515103</v>
       </c>
       <c r="L25">
-        <v>0.9969017752952058</v>
+        <v>1.039724522277563</v>
       </c>
       <c r="M25">
-        <v>1.00180364783708</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.049035259123159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024464105313133</v>
+        <v>1.026164300461102</v>
       </c>
       <c r="D2">
-        <v>1.042543189385098</v>
+        <v>1.038387338003413</v>
       </c>
       <c r="E2">
-        <v>1.036537895191067</v>
+        <v>1.035440434075952</v>
       </c>
       <c r="F2">
-        <v>1.046364360543637</v>
+        <v>1.039088299103089</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058114160865996</v>
+        <v>1.05246171502284</v>
       </c>
       <c r="J2">
-        <v>1.045936933554358</v>
+        <v>1.047589643646589</v>
       </c>
       <c r="K2">
-        <v>1.053440017225033</v>
+        <v>1.049336577683177</v>
       </c>
       <c r="L2">
-        <v>1.047510628032194</v>
+        <v>1.046427157351185</v>
       </c>
       <c r="M2">
-        <v>1.05721345510847</v>
+        <v>1.050028661871531</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031803404056873</v>
+        <v>1.03249996780828</v>
       </c>
       <c r="D3">
-        <v>1.048386921678069</v>
+        <v>1.043272492481979</v>
       </c>
       <c r="E3">
-        <v>1.042810523259602</v>
+        <v>1.041031161918057</v>
       </c>
       <c r="F3">
-        <v>1.052902023163317</v>
+        <v>1.045391424797306</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060599459748421</v>
+        <v>1.054736916366679</v>
       </c>
       <c r="J3">
-        <v>1.05146308701159</v>
+        <v>1.052142222719509</v>
       </c>
       <c r="K3">
-        <v>1.058435967863139</v>
+        <v>1.053380086523387</v>
       </c>
       <c r="L3">
-        <v>1.052923440658203</v>
+        <v>1.05116463777478</v>
       </c>
       <c r="M3">
-        <v>1.062899964762109</v>
+        <v>1.055474676395917</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0364166537211</v>
+        <v>1.036493225684557</v>
       </c>
       <c r="D4">
-        <v>1.052061298176297</v>
+        <v>1.046353757456661</v>
       </c>
       <c r="E4">
-        <v>1.046758653564444</v>
+        <v>1.044560452783647</v>
       </c>
       <c r="F4">
-        <v>1.057016887746712</v>
+        <v>1.049372106712494</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062146162036224</v>
+        <v>1.05616052892957</v>
       </c>
       <c r="J4">
-        <v>1.054932562866238</v>
+        <v>1.055007355976509</v>
       </c>
       <c r="K4">
-        <v>1.061569510427294</v>
+        <v>1.055923158938339</v>
       </c>
       <c r="L4">
-        <v>1.056323687293437</v>
+        <v>1.054149249187397</v>
       </c>
       <c r="M4">
-        <v>1.066472627690943</v>
+        <v>1.058909047577726</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038325312483853</v>
+        <v>1.038147748495734</v>
       </c>
       <c r="D5">
-        <v>1.053581699512485</v>
+        <v>1.047630877809386</v>
       </c>
       <c r="E5">
-        <v>1.048393330703524</v>
+        <v>1.04602401691939</v>
       </c>
       <c r="F5">
-        <v>1.05872057828633</v>
+        <v>1.051023283023101</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062782305932727</v>
+        <v>1.056747829959233</v>
       </c>
       <c r="J5">
-        <v>1.056366959821729</v>
+        <v>1.056193391031856</v>
       </c>
       <c r="K5">
-        <v>1.062864264786606</v>
+        <v>1.056975457554505</v>
       </c>
       <c r="L5">
-        <v>1.057729916757877</v>
+        <v>1.055385489931727</v>
       </c>
       <c r="M5">
-        <v>1.067950274294186</v>
+        <v>1.060332404880325</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038644029747968</v>
+        <v>1.0384241623268</v>
       </c>
       <c r="D6">
-        <v>1.053835591816569</v>
+        <v>1.047844265788388</v>
       </c>
       <c r="E6">
-        <v>1.048666365452491</v>
+        <v>1.046268601598115</v>
       </c>
       <c r="F6">
-        <v>1.059005138861223</v>
+        <v>1.05129924627815</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062888308238111</v>
+        <v>1.056845796905305</v>
       </c>
       <c r="J6">
-        <v>1.056606419384658</v>
+        <v>1.056391472263713</v>
       </c>
       <c r="K6">
-        <v>1.063080367129602</v>
+        <v>1.05715117830398</v>
       </c>
       <c r="L6">
-        <v>1.057964700487995</v>
+        <v>1.055592000042657</v>
       </c>
       <c r="M6">
-        <v>1.068196988237604</v>
+        <v>1.060570221013429</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036442275932218</v>
+        <v>1.036515427211165</v>
       </c>
       <c r="D7">
-        <v>1.05208170773265</v>
+        <v>1.046370893002801</v>
       </c>
       <c r="E7">
-        <v>1.046780593146974</v>
+        <v>1.044580086919547</v>
       </c>
       <c r="F7">
-        <v>1.05703975366658</v>
+        <v>1.049394256011562</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06215471679842</v>
+        <v>1.05616841985654</v>
       </c>
       <c r="J7">
-        <v>1.054951822702907</v>
+        <v>1.055023275315525</v>
       </c>
       <c r="K7">
-        <v>1.061586898289125</v>
+        <v>1.05593728489655</v>
       </c>
       <c r="L7">
-        <v>1.056342567134665</v>
+        <v>1.054165839446039</v>
       </c>
       <c r="M7">
-        <v>1.066492465933547</v>
+        <v>1.058928145652213</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026973667573913</v>
+        <v>1.028328247443267</v>
       </c>
       <c r="D8">
-        <v>1.044541050463285</v>
+        <v>1.040055343820018</v>
       </c>
       <c r="E8">
-        <v>1.038681542279944</v>
+        <v>1.037348741776492</v>
       </c>
       <c r="F8">
-        <v>1.048598599503419</v>
+        <v>1.041239435928678</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058967193942189</v>
+        <v>1.053240971648109</v>
       </c>
       <c r="J8">
-        <v>1.047827340672919</v>
+        <v>1.04914544744874</v>
       </c>
       <c r="K8">
-        <v>1.055149681305451</v>
+        <v>1.050718756396318</v>
       </c>
       <c r="L8">
-        <v>1.049361850186925</v>
+        <v>1.048045494008747</v>
       </c>
       <c r="M8">
-        <v>1.059158178611241</v>
+        <v>1.051888330751802</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009162059141439</v>
+        <v>1.013027477231909</v>
       </c>
       <c r="D9">
-        <v>1.030370931630666</v>
+        <v>1.02827420848649</v>
       </c>
       <c r="E9">
-        <v>1.023494008696722</v>
+        <v>1.023881937385177</v>
       </c>
       <c r="F9">
-        <v>1.032768898984924</v>
+        <v>1.026065119426342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052848906769038</v>
+        <v>1.047688371597022</v>
       </c>
       <c r="J9">
-        <v>1.034395378790815</v>
+        <v>1.038128442682861</v>
       </c>
       <c r="K9">
-        <v>1.042989756305445</v>
+        <v>1.040924627344635</v>
       </c>
       <c r="L9">
-        <v>1.036217074583356</v>
+        <v>1.036599075477158</v>
       </c>
       <c r="M9">
-        <v>1.045351790273705</v>
+        <v>1.038749003667382</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9963938357353826</v>
+        <v>1.002147813966513</v>
       </c>
       <c r="D10">
-        <v>1.020231204775616</v>
+        <v>1.019917806315926</v>
       </c>
       <c r="E10">
-        <v>1.012646334296736</v>
+        <v>1.014343210031485</v>
       </c>
       <c r="F10">
-        <v>1.021462166946733</v>
+        <v>1.015323494036763</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048384677112915</v>
+        <v>1.043688042590209</v>
       </c>
       <c r="J10">
-        <v>1.02475126428726</v>
+        <v>1.030276474623711</v>
       </c>
       <c r="K10">
-        <v>1.03424454000855</v>
+        <v>1.03393651587304</v>
       </c>
       <c r="L10">
-        <v>1.026790948636127</v>
+        <v>1.028458234106668</v>
       </c>
       <c r="M10">
-        <v>1.035454434213991</v>
+        <v>1.029421482169943</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9906174901214748</v>
+        <v>0.9972524248204054</v>
       </c>
       <c r="D11">
-        <v>1.015650341183755</v>
+        <v>1.016164110417009</v>
       </c>
       <c r="E11">
-        <v>1.007750008021025</v>
+        <v>1.01006107214971</v>
       </c>
       <c r="F11">
-        <v>1.016358554262117</v>
+        <v>1.010502467546632</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046347676356206</v>
+        <v>1.04187649844634</v>
       </c>
       <c r="J11">
-        <v>1.020385869512037</v>
+        <v>1.026739954533002</v>
       </c>
       <c r="K11">
-        <v>1.030283029418137</v>
+        <v>1.030787500264601</v>
       </c>
       <c r="L11">
-        <v>1.022527235681357</v>
+        <v>1.024795713276365</v>
       </c>
       <c r="M11">
-        <v>1.030978428181089</v>
+        <v>1.025229003831107</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9884312000269039</v>
+        <v>0.995404114335445</v>
       </c>
       <c r="D12">
-        <v>1.013917679754488</v>
+        <v>1.014747945184861</v>
       </c>
       <c r="E12">
-        <v>1.005898645272122</v>
+        <v>1.008445893233029</v>
       </c>
       <c r="F12">
-        <v>1.014428802829447</v>
+        <v>1.008684152221102</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04557419673129</v>
+        <v>1.041190867076816</v>
       </c>
       <c r="J12">
-        <v>1.01873337249212</v>
+        <v>1.025404261994942</v>
       </c>
       <c r="K12">
-        <v>1.02878300974549</v>
+        <v>1.029597949080615</v>
       </c>
       <c r="L12">
-        <v>1.020913702413085</v>
+        <v>1.02341305257276</v>
       </c>
       <c r="M12">
-        <v>1.029284693992024</v>
+        <v>1.02364684755186</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.988902069427397</v>
+        <v>0.9958019768661327</v>
       </c>
       <c r="D13">
-        <v>1.014290794169436</v>
+        <v>1.015052733941731</v>
       </c>
       <c r="E13">
-        <v>1.006297293740822</v>
+        <v>1.008793498806026</v>
       </c>
       <c r="F13">
-        <v>1.014844330982663</v>
+        <v>1.009075470114643</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045740894501045</v>
+        <v>1.041338528073661</v>
       </c>
       <c r="J13">
-        <v>1.019089285537593</v>
+        <v>1.025691798127466</v>
       </c>
       <c r="K13">
-        <v>1.029106100243576</v>
+        <v>1.029854034435728</v>
       </c>
       <c r="L13">
-        <v>1.021261201801385</v>
+        <v>1.023710671523238</v>
       </c>
       <c r="M13">
-        <v>1.029649459509433</v>
+        <v>1.023987382573969</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9904376227523883</v>
+        <v>0.9971002675675742</v>
       </c>
       <c r="D14">
-        <v>1.01550776957837</v>
+        <v>1.016047505523658</v>
       </c>
       <c r="E14">
-        <v>1.007597656780826</v>
+        <v>1.009928073891054</v>
       </c>
       <c r="F14">
-        <v>1.016199752524958</v>
+        <v>1.010352740152138</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046284091610283</v>
+        <v>1.04182008893875</v>
       </c>
       <c r="J14">
-        <v>1.020249921688497</v>
+        <v>1.026630005597383</v>
       </c>
       <c r="K14">
-        <v>1.030159633707311</v>
+        <v>1.030689585300571</v>
       </c>
       <c r="L14">
-        <v>1.022394483622079</v>
+        <v>1.024681885493459</v>
       </c>
       <c r="M14">
-        <v>1.030839074807089</v>
+        <v>1.02509874103758</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9913782227209625</v>
+        <v>0.9978961482836475</v>
       </c>
       <c r="D15">
-        <v>1.016253382736009</v>
+        <v>1.016657469438723</v>
       </c>
       <c r="E15">
-        <v>1.008394439867802</v>
+        <v>1.010623806094118</v>
       </c>
       <c r="F15">
-        <v>1.017030270679055</v>
+        <v>1.011135989679579</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04661650155868</v>
+        <v>1.042115079948147</v>
       </c>
       <c r="J15">
-        <v>1.02096083949587</v>
+        <v>1.027205092209028</v>
       </c>
       <c r="K15">
-        <v>1.030804895760917</v>
+        <v>1.031201719823956</v>
       </c>
       <c r="L15">
-        <v>1.023088709017561</v>
+        <v>1.025277285632409</v>
       </c>
       <c r="M15">
-        <v>1.03156782736691</v>
+        <v>1.025780131115414</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9967716872996332</v>
+        <v>1.00246863365413</v>
       </c>
       <c r="D16">
-        <v>1.020531003001827</v>
+        <v>1.020163947464902</v>
       </c>
       <c r="E16">
-        <v>1.012966865643508</v>
+        <v>1.014624054058054</v>
       </c>
       <c r="F16">
-        <v>1.021796266427066</v>
+        <v>1.015639700910392</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048517574433958</v>
+        <v>1.043806528573757</v>
       </c>
       <c r="J16">
-        <v>1.025036780828306</v>
+        <v>1.030508175569395</v>
       </c>
       <c r="K16">
-        <v>1.034503581872083</v>
+        <v>1.034142798062553</v>
       </c>
       <c r="L16">
-        <v>1.027069878669429</v>
+        <v>1.028698275647156</v>
       </c>
       <c r="M16">
-        <v>1.03574727085822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.029696337064729</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000086237791202</v>
+        <v>1.005285951455263</v>
       </c>
       <c r="D17">
-        <v>1.023161600116304</v>
+        <v>1.022326198238401</v>
       </c>
       <c r="E17">
-        <v>1.015779876060066</v>
+        <v>1.017091451531243</v>
       </c>
       <c r="F17">
-        <v>1.024728342900102</v>
+        <v>1.018417906097229</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049681413727722</v>
+        <v>1.044845727387573</v>
       </c>
       <c r="J17">
-        <v>1.027541102411355</v>
+        <v>1.032542502976994</v>
       </c>
       <c r="K17">
-        <v>1.036775354721156</v>
+        <v>1.03595377390552</v>
       </c>
       <c r="L17">
-        <v>1.029516770462894</v>
+        <v>1.030806298268012</v>
       </c>
       <c r="M17">
-        <v>1.038316255149532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.032110529483897</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00199592559084</v>
+        <v>1.006911614361313</v>
       </c>
       <c r="D18">
-        <v>1.024677809172054</v>
+        <v>1.023574458780908</v>
       </c>
       <c r="E18">
-        <v>1.017401637051402</v>
+        <v>1.018516126431464</v>
       </c>
       <c r="F18">
-        <v>1.026418740326891</v>
+        <v>1.020022149728731</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050350321454848</v>
+        <v>1.045444275500904</v>
       </c>
       <c r="J18">
-        <v>1.028983740745039</v>
+        <v>1.033716028341067</v>
       </c>
       <c r="K18">
-        <v>1.038083746455629</v>
+        <v>1.036998306234812</v>
       </c>
       <c r="L18">
-        <v>1.030926607108661</v>
+        <v>1.032022722387307</v>
       </c>
       <c r="M18">
-        <v>1.039796518397264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.033503998553821</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00264317020868</v>
+        <v>1.007462997002099</v>
       </c>
       <c r="D19">
-        <v>1.025191786663863</v>
+        <v>1.023997932231199</v>
       </c>
       <c r="E19">
-        <v>1.01795146664731</v>
+        <v>1.018999493036646</v>
       </c>
       <c r="F19">
-        <v>1.026991838563404</v>
+        <v>1.020566460330093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050576750563313</v>
+        <v>1.045647099488718</v>
       </c>
       <c r="J19">
-        <v>1.029472646676314</v>
+        <v>1.034113998952735</v>
       </c>
       <c r="K19">
-        <v>1.038527107193904</v>
+        <v>1.037352506091169</v>
       </c>
       <c r="L19">
-        <v>1.031404443792918</v>
+        <v>1.032435306522237</v>
       </c>
       <c r="M19">
-        <v>1.040298238128153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.033976695878799</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9997330862605095</v>
+        <v>1.004985518973491</v>
       </c>
       <c r="D20">
-        <v>1.022881259059074</v>
+        <v>1.022095558683391</v>
       </c>
       <c r="E20">
-        <v>1.015480052614891</v>
+        <v>1.016828236997984</v>
       </c>
       <c r="F20">
-        <v>1.024415829646304</v>
+        <v>1.018121524555874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049557581323153</v>
+        <v>1.044735022826566</v>
       </c>
       <c r="J20">
-        <v>1.027274300863451</v>
+        <v>1.03232560081758</v>
       </c>
       <c r="K20">
-        <v>1.03653335740847</v>
+        <v>1.035760701160243</v>
       </c>
       <c r="L20">
-        <v>1.029256057909489</v>
+        <v>1.030581498443396</v>
       </c>
       <c r="M20">
-        <v>1.038042525451653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.031853041238997</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9899865943791197</v>
+        <v>0.9967187991293316</v>
       </c>
       <c r="D21">
-        <v>1.015150281806289</v>
+        <v>1.015755187183769</v>
       </c>
       <c r="E21">
-        <v>1.00721565711786</v>
+        <v>1.009594664320954</v>
       </c>
       <c r="F21">
-        <v>1.015801578958857</v>
+        <v>1.009977394681184</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046124609292786</v>
+        <v>1.041678640045549</v>
       </c>
       <c r="J21">
-        <v>1.019909020860852</v>
+        <v>1.02635434947452</v>
       </c>
       <c r="K21">
-        <v>1.029850201915117</v>
+        <v>1.030444096539635</v>
       </c>
       <c r="L21">
-        <v>1.022061604121118</v>
+        <v>1.024396514597188</v>
       </c>
       <c r="M21">
-        <v>1.030489644575765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.024772176040007</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.983621044070866</v>
+        <v>0.9913466396993384</v>
       </c>
       <c r="D22">
-        <v>1.010107932042476</v>
+        <v>1.011641290693225</v>
       </c>
       <c r="E22">
-        <v>1.001828996026025</v>
+        <v>1.004903255777912</v>
       </c>
       <c r="F22">
-        <v>1.010186821185648</v>
+        <v>1.004696152549023</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043867966605898</v>
+        <v>1.039682771822928</v>
       </c>
       <c r="J22">
-        <v>1.015097347339801</v>
+        <v>1.022471392643207</v>
       </c>
       <c r="K22">
-        <v>1.025481773523375</v>
+        <v>1.026985605878578</v>
       </c>
       <c r="L22">
-        <v>1.017364307014669</v>
+        <v>1.020378200020825</v>
       </c>
       <c r="M22">
-        <v>1.025559140715083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.020175148282798</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9870193490184687</v>
+        <v>0.9942118803686154</v>
       </c>
       <c r="D23">
-        <v>1.012799121471455</v>
+        <v>1.01383478603046</v>
       </c>
       <c r="E23">
-        <v>1.004703626199852</v>
+        <v>1.007404501128131</v>
       </c>
       <c r="F23">
-        <v>1.013183182395406</v>
+        <v>1.007511817540279</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045074015441924</v>
+        <v>1.040748149012152</v>
       </c>
       <c r="J23">
-        <v>1.017666180973542</v>
+        <v>1.024542574281614</v>
       </c>
       <c r="K23">
-        <v>1.027814178432961</v>
+        <v>1.028830483589252</v>
       </c>
       <c r="L23">
-        <v>1.019871809922885</v>
+        <v>1.022521239938953</v>
       </c>
       <c r="M23">
-        <v>1.02819105418128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.022626519691205</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9998927330113644</v>
+        <v>1.005121325799109</v>
       </c>
       <c r="D24">
-        <v>1.023007989090308</v>
+        <v>1.022199814656379</v>
       </c>
       <c r="E24">
-        <v>1.015615588501392</v>
+        <v>1.016947217042625</v>
       </c>
       <c r="F24">
-        <v>1.024557102014352</v>
+        <v>1.018255496640262</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049613566483078</v>
+        <v>1.044785068874941</v>
       </c>
       <c r="J24">
-        <v>1.027394912714545</v>
+        <v>1.03242364982174</v>
       </c>
       <c r="K24">
-        <v>1.036642757000822</v>
+        <v>1.035847978723118</v>
       </c>
       <c r="L24">
-        <v>1.029373916262176</v>
+        <v>1.030683116327526</v>
       </c>
       <c r="M24">
-        <v>1.038166268118524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.031969434351705</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013913417023069</v>
+        <v>1.017095553138533</v>
       </c>
       <c r="D25">
-        <v>1.034148429587309</v>
+        <v>1.031403419208336</v>
       </c>
       <c r="E25">
-        <v>1.027539187457137</v>
+        <v>1.02745644625908</v>
       </c>
       <c r="F25">
-        <v>1.036985188263345</v>
+        <v>1.030091598650815</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05449470120658</v>
+        <v>1.049173822666611</v>
       </c>
       <c r="J25">
-        <v>1.037981443389451</v>
+        <v>1.041060969806211</v>
       </c>
       <c r="K25">
-        <v>1.046238793515103</v>
+        <v>1.043533040183372</v>
       </c>
       <c r="L25">
-        <v>1.039724522277563</v>
+        <v>1.039642979837289</v>
       </c>
       <c r="M25">
-        <v>1.049035259123159</v>
+        <v>1.042240073870432</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026164300461102</v>
+        <v>1.060212565978397</v>
       </c>
       <c r="D2">
-        <v>1.038387338003413</v>
+        <v>1.059029976307232</v>
       </c>
       <c r="E2">
-        <v>1.035440434075952</v>
+        <v>1.065305517444204</v>
       </c>
       <c r="F2">
-        <v>1.039088299103089</v>
+        <v>1.074369071146583</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05246171502284</v>
+        <v>1.048266099844684</v>
       </c>
       <c r="J2">
-        <v>1.047589643646589</v>
+        <v>1.065194583162611</v>
       </c>
       <c r="K2">
-        <v>1.049336577683177</v>
+        <v>1.061760593960951</v>
       </c>
       <c r="L2">
-        <v>1.046427157351185</v>
+        <v>1.068019114961758</v>
       </c>
       <c r="M2">
-        <v>1.050028661871531</v>
+        <v>1.077058466466709</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03249996780828</v>
+        <v>1.061496188969643</v>
       </c>
       <c r="D3">
-        <v>1.043272492481979</v>
+        <v>1.060029360536541</v>
       </c>
       <c r="E3">
-        <v>1.041031161918057</v>
+        <v>1.066488710491749</v>
       </c>
       <c r="F3">
-        <v>1.045391424797306</v>
+        <v>1.075724833772661</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054736916366679</v>
+        <v>1.048655696046671</v>
       </c>
       <c r="J3">
-        <v>1.052142222719509</v>
+        <v>1.06613017084674</v>
       </c>
       <c r="K3">
-        <v>1.053380086523387</v>
+        <v>1.062573658481804</v>
       </c>
       <c r="L3">
-        <v>1.05116463777478</v>
+        <v>1.06901676174861</v>
       </c>
       <c r="M3">
-        <v>1.055474676395917</v>
+        <v>1.078230018876174</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036493225684557</v>
+        <v>1.062326228587303</v>
       </c>
       <c r="D4">
-        <v>1.046353757456661</v>
+        <v>1.060675445267673</v>
       </c>
       <c r="E4">
-        <v>1.044560452783647</v>
+        <v>1.067254098604846</v>
       </c>
       <c r="F4">
-        <v>1.049372106712494</v>
+        <v>1.076602188036039</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05616052892957</v>
+        <v>1.04890627515856</v>
       </c>
       <c r="J4">
-        <v>1.055007355976509</v>
+        <v>1.066734492371149</v>
       </c>
       <c r="K4">
-        <v>1.055923158938339</v>
+        <v>1.063098569188279</v>
       </c>
       <c r="L4">
-        <v>1.054149249187397</v>
+        <v>1.069661512171499</v>
       </c>
       <c r="M4">
-        <v>1.058909047577726</v>
+        <v>1.078987631889343</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.038147748495734</v>
+        <v>1.062675048634612</v>
       </c>
       <c r="D5">
-        <v>1.047630877809386</v>
+        <v>1.060946921260194</v>
       </c>
       <c r="E5">
-        <v>1.04602401691939</v>
+        <v>1.067575818131303</v>
       </c>
       <c r="F5">
-        <v>1.051023283023101</v>
+        <v>1.07697105099508</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056747829959233</v>
+        <v>1.049011256702166</v>
       </c>
       <c r="J5">
-        <v>1.056193391031856</v>
+        <v>1.066988295935871</v>
       </c>
       <c r="K5">
-        <v>1.056975457554505</v>
+        <v>1.063318956924476</v>
       </c>
       <c r="L5">
-        <v>1.055385489931727</v>
+        <v>1.069932377336073</v>
       </c>
       <c r="M5">
-        <v>1.060332404880325</v>
+        <v>1.079306024841854</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0384241623268</v>
+        <v>1.062733609604773</v>
       </c>
       <c r="D6">
-        <v>1.047844265788388</v>
+        <v>1.06099249522939</v>
       </c>
       <c r="E6">
-        <v>1.046268601598115</v>
+        <v>1.067629833411248</v>
       </c>
       <c r="F6">
-        <v>1.05129924627815</v>
+        <v>1.077032986153258</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056845796905305</v>
+        <v>1.049028862369758</v>
       </c>
       <c r="J6">
-        <v>1.056391472263713</v>
+        <v>1.067030895883025</v>
       </c>
       <c r="K6">
-        <v>1.05715117830398</v>
+        <v>1.063355944347982</v>
       </c>
       <c r="L6">
-        <v>1.055592000042657</v>
+        <v>1.069977845831114</v>
       </c>
       <c r="M6">
-        <v>1.060570221013429</v>
+        <v>1.079359478184986</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036515427211165</v>
+        <v>1.062330890039277</v>
       </c>
       <c r="D7">
-        <v>1.046370893002801</v>
+        <v>1.060679073283402</v>
       </c>
       <c r="E7">
-        <v>1.044580086919547</v>
+        <v>1.067258397629082</v>
       </c>
       <c r="F7">
-        <v>1.049394256011562</v>
+        <v>1.076607116706147</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05616841985654</v>
+        <v>1.04890767934799</v>
       </c>
       <c r="J7">
-        <v>1.055023275315525</v>
+        <v>1.066737884699153</v>
       </c>
       <c r="K7">
-        <v>1.05593728489655</v>
+        <v>1.063101515136658</v>
       </c>
       <c r="L7">
-        <v>1.054165839446039</v>
+        <v>1.069665132220821</v>
       </c>
       <c r="M7">
-        <v>1.058928145652213</v>
+        <v>1.078991886691065</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028328247443267</v>
+        <v>1.060646488206924</v>
       </c>
       <c r="D8">
-        <v>1.040055343820018</v>
+        <v>1.059367844774464</v>
       </c>
       <c r="E8">
-        <v>1.037348741776492</v>
+        <v>1.06570542936734</v>
       </c>
       <c r="F8">
-        <v>1.041239435928678</v>
+        <v>1.074827241541854</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053240971648109</v>
+        <v>1.048398080105304</v>
       </c>
       <c r="J8">
-        <v>1.04914544744874</v>
+        <v>1.065510991421919</v>
       </c>
       <c r="K8">
-        <v>1.050718756396318</v>
+        <v>1.062035621669734</v>
       </c>
       <c r="L8">
-        <v>1.048045494008747</v>
+        <v>1.068356439991605</v>
       </c>
       <c r="M8">
-        <v>1.051888330751802</v>
+        <v>1.077454494788274</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013027477231909</v>
+        <v>1.05767400184968</v>
       </c>
       <c r="D9">
-        <v>1.02827420848649</v>
+        <v>1.057052745184799</v>
       </c>
       <c r="E9">
-        <v>1.023881937385177</v>
+        <v>1.06296713660516</v>
       </c>
       <c r="F9">
-        <v>1.026065119426342</v>
+        <v>1.071691399359271</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047688371597022</v>
+        <v>1.047488450379145</v>
       </c>
       <c r="J9">
-        <v>1.038128442682861</v>
+        <v>1.063340789633618</v>
       </c>
       <c r="K9">
-        <v>1.040924627344635</v>
+        <v>1.060148141737401</v>
       </c>
       <c r="L9">
-        <v>1.036599075477158</v>
+        <v>1.06604418278812</v>
       </c>
       <c r="M9">
-        <v>1.038749003667382</v>
+        <v>1.074741780369689</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002147813966513</v>
+        <v>1.055689217650336</v>
       </c>
       <c r="D10">
-        <v>1.019917806315926</v>
+        <v>1.055506177875344</v>
       </c>
       <c r="E10">
-        <v>1.014343210031485</v>
+        <v>1.061140275568745</v>
       </c>
       <c r="F10">
-        <v>1.015323494036763</v>
+        <v>1.069601011056389</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043688042590209</v>
+        <v>1.046874136700831</v>
       </c>
       <c r="J10">
-        <v>1.030276474623711</v>
+        <v>1.06188830382356</v>
       </c>
       <c r="K10">
-        <v>1.03393651587304</v>
+        <v>1.058883500857672</v>
       </c>
       <c r="L10">
-        <v>1.028458234106668</v>
+        <v>1.064498391807705</v>
       </c>
       <c r="M10">
-        <v>1.029421482169943</v>
+        <v>1.072930701826595</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9972524248204054</v>
+        <v>1.054828997794873</v>
       </c>
       <c r="D11">
-        <v>1.016164110417009</v>
+        <v>1.054835720577301</v>
       </c>
       <c r="E11">
-        <v>1.01006107214971</v>
+        <v>1.060348875237239</v>
       </c>
       <c r="F11">
-        <v>1.010502467546632</v>
+        <v>1.068695850170939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04187649844634</v>
+        <v>1.046606245906017</v>
       </c>
       <c r="J11">
-        <v>1.026739954533002</v>
+        <v>1.061257983178738</v>
       </c>
       <c r="K11">
-        <v>1.030787500264601</v>
+        <v>1.058334373306913</v>
       </c>
       <c r="L11">
-        <v>1.024795713276365</v>
+        <v>1.06382799995354</v>
       </c>
       <c r="M11">
-        <v>1.025229003831107</v>
+        <v>1.072145831480218</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.995404114335445</v>
+        <v>1.054509350421027</v>
       </c>
       <c r="D12">
-        <v>1.014747945184861</v>
+        <v>1.054586562907234</v>
       </c>
       <c r="E12">
-        <v>1.008445893233029</v>
+        <v>1.060054857256318</v>
       </c>
       <c r="F12">
-        <v>1.008684152221102</v>
+        <v>1.068359628171486</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041190867076816</v>
+        <v>1.046506454288682</v>
       </c>
       <c r="J12">
-        <v>1.025404261994942</v>
+        <v>1.061023643320154</v>
       </c>
       <c r="K12">
-        <v>1.029597949080615</v>
+        <v>1.05813017083365</v>
       </c>
       <c r="L12">
-        <v>1.02341305257276</v>
+        <v>1.063578825462843</v>
       </c>
       <c r="M12">
-        <v>1.02364684755186</v>
+        <v>1.071854193119243</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9958019768661327</v>
+        <v>1.054577921516277</v>
       </c>
       <c r="D13">
-        <v>1.015052733941731</v>
+        <v>1.054640013539115</v>
       </c>
       <c r="E13">
-        <v>1.008793498806026</v>
+        <v>1.060117927722948</v>
       </c>
       <c r="F13">
-        <v>1.009075470114643</v>
+        <v>1.068431749213378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041338528073661</v>
+        <v>1.046527872848666</v>
       </c>
       <c r="J13">
-        <v>1.025691798127466</v>
+        <v>1.06107391959319</v>
       </c>
       <c r="K13">
-        <v>1.029854034435728</v>
+        <v>1.058173983494062</v>
       </c>
       <c r="L13">
-        <v>1.023710671523238</v>
+        <v>1.063632281571344</v>
       </c>
       <c r="M13">
-        <v>1.023987382573969</v>
+        <v>1.071916755230633</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9971002675675742</v>
+        <v>1.054802578183818</v>
       </c>
       <c r="D14">
-        <v>1.016047505523658</v>
+        <v>1.054815127587263</v>
       </c>
       <c r="E14">
-        <v>1.009928073891054</v>
+        <v>1.060324572792232</v>
       </c>
       <c r="F14">
-        <v>1.010352740152138</v>
+        <v>1.068668058077305</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04182008893875</v>
+        <v>1.046598002921999</v>
       </c>
       <c r="J14">
-        <v>1.026630005597383</v>
+        <v>1.061238616886746</v>
       </c>
       <c r="K14">
-        <v>1.030689585300571</v>
+        <v>1.058317498613476</v>
       </c>
       <c r="L14">
-        <v>1.024681885493459</v>
+        <v>1.063807406414777</v>
       </c>
       <c r="M14">
-        <v>1.02509874103758</v>
+        <v>1.072121726673243</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9978961482836475</v>
+        <v>1.054940980098828</v>
       </c>
       <c r="D15">
-        <v>1.016657469438723</v>
+        <v>1.054923005165436</v>
       </c>
       <c r="E15">
-        <v>1.010623806094118</v>
+        <v>1.060451886042767</v>
       </c>
       <c r="F15">
-        <v>1.011135989679579</v>
+        <v>1.068813655004493</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042115079948147</v>
+        <v>1.046641174565337</v>
       </c>
       <c r="J15">
-        <v>1.027205092209028</v>
+        <v>1.06134006432435</v>
       </c>
       <c r="K15">
-        <v>1.031201719823956</v>
+        <v>1.058405892199252</v>
       </c>
       <c r="L15">
-        <v>1.025277285632409</v>
+        <v>1.063915285180548</v>
       </c>
       <c r="M15">
-        <v>1.025780131115414</v>
+        <v>1.072248002656694</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00246863365413</v>
+        <v>1.055746290518435</v>
       </c>
       <c r="D16">
-        <v>1.020163947464902</v>
+        <v>1.055550657218012</v>
       </c>
       <c r="E16">
-        <v>1.014624054058054</v>
+        <v>1.061192790419112</v>
       </c>
       <c r="F16">
-        <v>1.015639700910392</v>
+        <v>1.069661083107728</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043806528573757</v>
+        <v>1.046891875825856</v>
       </c>
       <c r="J16">
-        <v>1.030508175569395</v>
+        <v>1.06193010672708</v>
       </c>
       <c r="K16">
-        <v>1.034142798062553</v>
+        <v>1.05891991222546</v>
       </c>
       <c r="L16">
-        <v>1.028698275647156</v>
+        <v>1.064542861064381</v>
       </c>
       <c r="M16">
-        <v>1.029696337064729</v>
+        <v>1.072982776878892</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005285951455263</v>
+        <v>1.056251224787447</v>
       </c>
       <c r="D17">
-        <v>1.022326198238401</v>
+        <v>1.05594415541545</v>
       </c>
       <c r="E17">
-        <v>1.017091451531243</v>
+        <v>1.061657442376085</v>
       </c>
       <c r="F17">
-        <v>1.018417906097229</v>
+        <v>1.070192647433422</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044845727387573</v>
+        <v>1.047048627498005</v>
       </c>
       <c r="J17">
-        <v>1.032542502976994</v>
+        <v>1.06229985213106</v>
       </c>
       <c r="K17">
-        <v>1.03595377390552</v>
+        <v>1.059241932290571</v>
       </c>
       <c r="L17">
-        <v>1.030806298268012</v>
+        <v>1.064936238682391</v>
       </c>
       <c r="M17">
-        <v>1.032110529483897</v>
+        <v>1.073443502006855</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006911614361313</v>
+        <v>1.056545667946984</v>
       </c>
       <c r="D18">
-        <v>1.023574458780908</v>
+        <v>1.056173600820468</v>
       </c>
       <c r="E18">
-        <v>1.018516126431464</v>
+        <v>1.061928431714366</v>
       </c>
       <c r="F18">
-        <v>1.020022149728731</v>
+        <v>1.070502699292043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045444275500904</v>
+        <v>1.047139875928965</v>
       </c>
       <c r="J18">
-        <v>1.033716028341067</v>
+        <v>1.062515384947563</v>
       </c>
       <c r="K18">
-        <v>1.036998306234812</v>
+        <v>1.059429613704123</v>
       </c>
       <c r="L18">
-        <v>1.032022722387307</v>
+        <v>1.065165587666517</v>
       </c>
       <c r="M18">
-        <v>1.033503998553821</v>
+        <v>1.073712171582963</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007462997002099</v>
+        <v>1.056646052605709</v>
       </c>
       <c r="D19">
-        <v>1.023997932231199</v>
+        <v>1.056251823047091</v>
       </c>
       <c r="E19">
-        <v>1.018999493036646</v>
+        <v>1.062020826348939</v>
       </c>
       <c r="F19">
-        <v>1.020566460330093</v>
+        <v>1.070608418966554</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045647099488718</v>
+        <v>1.047170958424934</v>
       </c>
       <c r="J19">
-        <v>1.034113998952735</v>
+        <v>1.062588853517665</v>
       </c>
       <c r="K19">
-        <v>1.037352506091169</v>
+        <v>1.059493583274224</v>
       </c>
       <c r="L19">
-        <v>1.032435306522237</v>
+        <v>1.065243772604865</v>
       </c>
       <c r="M19">
-        <v>1.033976695878799</v>
+        <v>1.073803770274621</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004985518973491</v>
+        <v>1.056197058057251</v>
       </c>
       <c r="D20">
-        <v>1.022095558683391</v>
+        <v>1.055901944603071</v>
       </c>
       <c r="E20">
-        <v>1.016828236997984</v>
+        <v>1.061607593187574</v>
       </c>
       <c r="F20">
-        <v>1.018121524555874</v>
+        <v>1.070135615703382</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044735022826566</v>
+        <v>1.047031828379147</v>
       </c>
       <c r="J20">
-        <v>1.03232560081758</v>
+        <v>1.062260195769278</v>
       </c>
       <c r="K20">
-        <v>1.035760701160243</v>
+        <v>1.059207397852859</v>
       </c>
       <c r="L20">
-        <v>1.030581498443396</v>
+        <v>1.064894043508917</v>
       </c>
       <c r="M20">
-        <v>1.031853041238997</v>
+        <v>1.073394077163324</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9967187991293316</v>
+        <v>1.054736425833378</v>
       </c>
       <c r="D21">
-        <v>1.015755187183769</v>
+        <v>1.054763564194969</v>
       </c>
       <c r="E21">
-        <v>1.009594664320954</v>
+        <v>1.060263722557756</v>
       </c>
       <c r="F21">
-        <v>1.009977394681184</v>
+        <v>1.068598471172181</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041678640045549</v>
+        <v>1.046577359242218</v>
       </c>
       <c r="J21">
-        <v>1.02635434947452</v>
+        <v>1.061190123476784</v>
       </c>
       <c r="K21">
-        <v>1.030444096539635</v>
+        <v>1.058275243411534</v>
       </c>
       <c r="L21">
-        <v>1.024396514597188</v>
+        <v>1.063755840982589</v>
       </c>
       <c r="M21">
-        <v>1.024772176040007</v>
+        <v>1.072061370549332</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9913466396993384</v>
+        <v>1.053817352356639</v>
       </c>
       <c r="D22">
-        <v>1.011641290693225</v>
+        <v>1.054047123963296</v>
       </c>
       <c r="E22">
-        <v>1.004903255777912</v>
+        <v>1.059418448459404</v>
       </c>
       <c r="F22">
-        <v>1.004696152549023</v>
+        <v>1.067631976998143</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039682771822928</v>
+        <v>1.046289966629255</v>
       </c>
       <c r="J22">
-        <v>1.022471392643207</v>
+        <v>1.060516106145079</v>
       </c>
       <c r="K22">
-        <v>1.026985605878578</v>
+        <v>1.057687817230076</v>
       </c>
       <c r="L22">
-        <v>1.020378200020825</v>
+        <v>1.063039274403961</v>
       </c>
       <c r="M22">
-        <v>1.020175148282798</v>
+        <v>1.071222849984825</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9942118803686154</v>
+        <v>1.054304639788188</v>
       </c>
       <c r="D23">
-        <v>1.01383478603046</v>
+        <v>1.054426989152226</v>
       </c>
       <c r="E23">
-        <v>1.007404501128131</v>
+        <v>1.059866576455679</v>
       </c>
       <c r="F23">
-        <v>1.007511817540279</v>
+        <v>1.068144337932157</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040748149012152</v>
+        <v>1.046442475697203</v>
       </c>
       <c r="J23">
-        <v>1.024542574281614</v>
+        <v>1.060873532059885</v>
       </c>
       <c r="K23">
-        <v>1.028830483589252</v>
+        <v>1.057999351075967</v>
       </c>
       <c r="L23">
-        <v>1.022521239938953</v>
+        <v>1.063419229302021</v>
       </c>
       <c r="M23">
-        <v>1.022626519691205</v>
+        <v>1.071667423074169</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005121325799109</v>
+        <v>1.056221533907146</v>
       </c>
       <c r="D24">
-        <v>1.022199814656379</v>
+        <v>1.055921018085319</v>
       </c>
       <c r="E24">
-        <v>1.016947217042625</v>
+        <v>1.061630117996018</v>
       </c>
       <c r="F24">
-        <v>1.018255496640262</v>
+        <v>1.070161385889107</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044785068874941</v>
+        <v>1.047039419740694</v>
       </c>
       <c r="J24">
-        <v>1.03242364982174</v>
+        <v>1.062278115184366</v>
       </c>
       <c r="K24">
-        <v>1.035847978723118</v>
+        <v>1.059223002934276</v>
       </c>
       <c r="L24">
-        <v>1.030683116327526</v>
+        <v>1.064913110005173</v>
       </c>
       <c r="M24">
-        <v>1.031969434351705</v>
+        <v>1.073416410319069</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.017095553138533</v>
+        <v>1.058442997324307</v>
       </c>
       <c r="D25">
-        <v>1.031403419208336</v>
+        <v>1.057651804118409</v>
       </c>
       <c r="E25">
-        <v>1.02745644625908</v>
+        <v>1.063675275024913</v>
       </c>
       <c r="F25">
-        <v>1.030091598650815</v>
+        <v>1.072502045977658</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049173822666611</v>
+        <v>1.047724998360827</v>
       </c>
       <c r="J25">
-        <v>1.041060969806211</v>
+        <v>1.063902831083202</v>
       </c>
       <c r="K25">
-        <v>1.043533040183372</v>
+        <v>1.060637206640578</v>
       </c>
       <c r="L25">
-        <v>1.039642979837289</v>
+        <v>1.066642702244386</v>
       </c>
       <c r="M25">
-        <v>1.042240073870432</v>
+        <v>1.075443529022866</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.060212565978397</v>
+        <v>1.026164300461103</v>
       </c>
       <c r="D2">
-        <v>1.059029976307232</v>
+        <v>1.038387338003414</v>
       </c>
       <c r="E2">
-        <v>1.065305517444204</v>
+        <v>1.035440434075953</v>
       </c>
       <c r="F2">
-        <v>1.074369071146583</v>
+        <v>1.039088299103091</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048266099844684</v>
+        <v>1.052461715022841</v>
       </c>
       <c r="J2">
-        <v>1.065194583162611</v>
+        <v>1.04758964364659</v>
       </c>
       <c r="K2">
-        <v>1.061760593960951</v>
+        <v>1.049336577683178</v>
       </c>
       <c r="L2">
-        <v>1.068019114961758</v>
+        <v>1.046427157351186</v>
       </c>
       <c r="M2">
-        <v>1.077058466466709</v>
+        <v>1.050028661871533</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061496188969643</v>
+        <v>1.032499967808282</v>
       </c>
       <c r="D3">
-        <v>1.060029360536541</v>
+        <v>1.043272492481981</v>
       </c>
       <c r="E3">
-        <v>1.066488710491749</v>
+        <v>1.041031161918059</v>
       </c>
       <c r="F3">
-        <v>1.075724833772661</v>
+        <v>1.045391424797308</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048655696046671</v>
+        <v>1.05473691636668</v>
       </c>
       <c r="J3">
-        <v>1.06613017084674</v>
+        <v>1.052142222719511</v>
       </c>
       <c r="K3">
-        <v>1.062573658481804</v>
+        <v>1.053380086523389</v>
       </c>
       <c r="L3">
-        <v>1.06901676174861</v>
+        <v>1.051164637774782</v>
       </c>
       <c r="M3">
-        <v>1.078230018876174</v>
+        <v>1.055474676395919</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062326228587303</v>
+        <v>1.036493225684554</v>
       </c>
       <c r="D4">
-        <v>1.060675445267673</v>
+        <v>1.046353757456659</v>
       </c>
       <c r="E4">
-        <v>1.067254098604846</v>
+        <v>1.044560452783644</v>
       </c>
       <c r="F4">
-        <v>1.076602188036039</v>
+        <v>1.049372106712491</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04890627515856</v>
+        <v>1.056160528929569</v>
       </c>
       <c r="J4">
-        <v>1.066734492371149</v>
+        <v>1.055007355976507</v>
       </c>
       <c r="K4">
-        <v>1.063098569188279</v>
+        <v>1.055923158938337</v>
       </c>
       <c r="L4">
-        <v>1.069661512171499</v>
+        <v>1.054149249187394</v>
       </c>
       <c r="M4">
-        <v>1.078987631889343</v>
+        <v>1.058909047577723</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.062675048634612</v>
+        <v>1.038147748495735</v>
       </c>
       <c r="D5">
-        <v>1.060946921260194</v>
+        <v>1.047630877809387</v>
       </c>
       <c r="E5">
-        <v>1.067575818131303</v>
+        <v>1.046024016919391</v>
       </c>
       <c r="F5">
-        <v>1.07697105099508</v>
+        <v>1.051023283023102</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049011256702166</v>
+        <v>1.056747829959234</v>
       </c>
       <c r="J5">
-        <v>1.066988295935871</v>
+        <v>1.056193391031856</v>
       </c>
       <c r="K5">
-        <v>1.063318956924476</v>
+        <v>1.056975457554505</v>
       </c>
       <c r="L5">
-        <v>1.069932377336073</v>
+        <v>1.055385489931728</v>
       </c>
       <c r="M5">
-        <v>1.079306024841854</v>
+        <v>1.060332404880325</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062733609604773</v>
+        <v>1.038424162326801</v>
       </c>
       <c r="D6">
-        <v>1.06099249522939</v>
+        <v>1.047844265788389</v>
       </c>
       <c r="E6">
-        <v>1.067629833411248</v>
+        <v>1.046268601598116</v>
       </c>
       <c r="F6">
-        <v>1.077032986153258</v>
+        <v>1.051299246278151</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049028862369758</v>
+        <v>1.056845796905305</v>
       </c>
       <c r="J6">
-        <v>1.067030895883025</v>
+        <v>1.056391472263714</v>
       </c>
       <c r="K6">
-        <v>1.063355944347982</v>
+        <v>1.05715117830398</v>
       </c>
       <c r="L6">
-        <v>1.069977845831114</v>
+        <v>1.055592000042658</v>
       </c>
       <c r="M6">
-        <v>1.079359478184986</v>
+        <v>1.06057022101343</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.062330890039277</v>
+        <v>1.036515427211167</v>
       </c>
       <c r="D7">
-        <v>1.060679073283402</v>
+        <v>1.046370893002803</v>
       </c>
       <c r="E7">
-        <v>1.067258397629082</v>
+        <v>1.044580086919549</v>
       </c>
       <c r="F7">
-        <v>1.076607116706147</v>
+        <v>1.049394256011564</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04890767934799</v>
+        <v>1.056168419856541</v>
       </c>
       <c r="J7">
-        <v>1.066737884699153</v>
+        <v>1.055023275315528</v>
       </c>
       <c r="K7">
-        <v>1.063101515136658</v>
+        <v>1.055937284896552</v>
       </c>
       <c r="L7">
-        <v>1.069665132220821</v>
+        <v>1.054165839446041</v>
       </c>
       <c r="M7">
-        <v>1.078991886691065</v>
+        <v>1.058928145652216</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.060646488206924</v>
+        <v>1.028328247443265</v>
       </c>
       <c r="D8">
-        <v>1.059367844774464</v>
+        <v>1.040055343820016</v>
       </c>
       <c r="E8">
-        <v>1.06570542936734</v>
+        <v>1.03734874177649</v>
       </c>
       <c r="F8">
-        <v>1.074827241541854</v>
+        <v>1.041239435928676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048398080105304</v>
+        <v>1.053240971648108</v>
       </c>
       <c r="J8">
-        <v>1.065510991421919</v>
+        <v>1.049145447448738</v>
       </c>
       <c r="K8">
-        <v>1.062035621669734</v>
+        <v>1.050718756396317</v>
       </c>
       <c r="L8">
-        <v>1.068356439991605</v>
+        <v>1.048045494008745</v>
       </c>
       <c r="M8">
-        <v>1.077454494788274</v>
+        <v>1.0518883307518</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05767400184968</v>
+        <v>1.013027477231909</v>
       </c>
       <c r="D9">
-        <v>1.057052745184799</v>
+        <v>1.02827420848649</v>
       </c>
       <c r="E9">
-        <v>1.06296713660516</v>
+        <v>1.023881937385178</v>
       </c>
       <c r="F9">
-        <v>1.071691399359271</v>
+        <v>1.026065119426343</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047488450379145</v>
+        <v>1.047688371597022</v>
       </c>
       <c r="J9">
-        <v>1.063340789633618</v>
+        <v>1.038128442682862</v>
       </c>
       <c r="K9">
-        <v>1.060148141737401</v>
+        <v>1.040924627344635</v>
       </c>
       <c r="L9">
-        <v>1.06604418278812</v>
+        <v>1.036599075477158</v>
       </c>
       <c r="M9">
-        <v>1.074741780369689</v>
+        <v>1.038749003667382</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055689217650336</v>
+        <v>1.002147813966513</v>
       </c>
       <c r="D10">
-        <v>1.055506177875344</v>
+        <v>1.019917806315925</v>
       </c>
       <c r="E10">
-        <v>1.061140275568745</v>
+        <v>1.014343210031485</v>
       </c>
       <c r="F10">
-        <v>1.069601011056389</v>
+        <v>1.015323494036763</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046874136700831</v>
+        <v>1.043688042590209</v>
       </c>
       <c r="J10">
-        <v>1.06188830382356</v>
+        <v>1.030276474623711</v>
       </c>
       <c r="K10">
-        <v>1.058883500857672</v>
+        <v>1.033936515873039</v>
       </c>
       <c r="L10">
-        <v>1.064498391807705</v>
+        <v>1.028458234106668</v>
       </c>
       <c r="M10">
-        <v>1.072930701826595</v>
+        <v>1.029421482169943</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054828997794873</v>
+        <v>0.997252424820406</v>
       </c>
       <c r="D11">
-        <v>1.054835720577301</v>
+        <v>1.01616411041701</v>
       </c>
       <c r="E11">
-        <v>1.060348875237239</v>
+        <v>1.010061072149711</v>
       </c>
       <c r="F11">
-        <v>1.068695850170939</v>
+        <v>1.010502467546632</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046606245906017</v>
+        <v>1.041876498446341</v>
       </c>
       <c r="J11">
-        <v>1.061257983178738</v>
+        <v>1.026739954533003</v>
       </c>
       <c r="K11">
-        <v>1.058334373306913</v>
+        <v>1.030787500264601</v>
       </c>
       <c r="L11">
-        <v>1.06382799995354</v>
+        <v>1.024795713276366</v>
       </c>
       <c r="M11">
-        <v>1.072145831480218</v>
+        <v>1.025229003831107</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054509350421027</v>
+        <v>0.9954041143354438</v>
       </c>
       <c r="D12">
-        <v>1.054586562907234</v>
+        <v>1.014747945184861</v>
       </c>
       <c r="E12">
-        <v>1.060054857256318</v>
+        <v>1.008445893233028</v>
       </c>
       <c r="F12">
-        <v>1.068359628171486</v>
+        <v>1.008684152221101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046506454288682</v>
+        <v>1.041190867076816</v>
       </c>
       <c r="J12">
-        <v>1.061023643320154</v>
+        <v>1.025404261994941</v>
       </c>
       <c r="K12">
-        <v>1.05813017083365</v>
+        <v>1.029597949080614</v>
       </c>
       <c r="L12">
-        <v>1.063578825462843</v>
+        <v>1.023413052572758</v>
       </c>
       <c r="M12">
-        <v>1.071854193119243</v>
+        <v>1.023646847551859</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054577921516277</v>
+        <v>0.9958019768661319</v>
       </c>
       <c r="D13">
-        <v>1.054640013539115</v>
+        <v>1.01505273394173</v>
       </c>
       <c r="E13">
-        <v>1.060117927722948</v>
+        <v>1.008793498806025</v>
       </c>
       <c r="F13">
-        <v>1.068431749213378</v>
+        <v>1.009075470114643</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046527872848666</v>
+        <v>1.041338528073661</v>
       </c>
       <c r="J13">
-        <v>1.06107391959319</v>
+        <v>1.025691798127466</v>
       </c>
       <c r="K13">
-        <v>1.058173983494062</v>
+        <v>1.029854034435727</v>
       </c>
       <c r="L13">
-        <v>1.063632281571344</v>
+        <v>1.023710671523238</v>
       </c>
       <c r="M13">
-        <v>1.071916755230633</v>
+        <v>1.023987382573968</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054802578183818</v>
+        <v>0.9971002675675752</v>
       </c>
       <c r="D14">
-        <v>1.054815127587263</v>
+        <v>1.016047505523659</v>
       </c>
       <c r="E14">
-        <v>1.060324572792232</v>
+        <v>1.009928073891055</v>
       </c>
       <c r="F14">
-        <v>1.068668058077305</v>
+        <v>1.010352740152139</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046598002921999</v>
+        <v>1.04182008893875</v>
       </c>
       <c r="J14">
-        <v>1.061238616886746</v>
+        <v>1.026630005597384</v>
       </c>
       <c r="K14">
-        <v>1.058317498613476</v>
+        <v>1.030689585300572</v>
       </c>
       <c r="L14">
-        <v>1.063807406414777</v>
+        <v>1.02468188549346</v>
       </c>
       <c r="M14">
-        <v>1.072121726673243</v>
+        <v>1.02509874103758</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054940980098828</v>
+        <v>0.9978961482836465</v>
       </c>
       <c r="D15">
-        <v>1.054923005165436</v>
+        <v>1.016657469438722</v>
       </c>
       <c r="E15">
-        <v>1.060451886042767</v>
+        <v>1.010623806094118</v>
       </c>
       <c r="F15">
-        <v>1.068813655004493</v>
+        <v>1.011135989679579</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046641174565337</v>
+        <v>1.042115079948147</v>
       </c>
       <c r="J15">
-        <v>1.06134006432435</v>
+        <v>1.027205092209026</v>
       </c>
       <c r="K15">
-        <v>1.058405892199252</v>
+        <v>1.031201719823955</v>
       </c>
       <c r="L15">
-        <v>1.063915285180548</v>
+        <v>1.025277285632409</v>
       </c>
       <c r="M15">
-        <v>1.072248002656694</v>
+        <v>1.025780131115412</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055746290518435</v>
+        <v>1.00246863365413</v>
       </c>
       <c r="D16">
-        <v>1.055550657218012</v>
+        <v>1.020163947464903</v>
       </c>
       <c r="E16">
-        <v>1.061192790419112</v>
+        <v>1.014624054058055</v>
       </c>
       <c r="F16">
-        <v>1.069661083107728</v>
+        <v>1.015639700910392</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046891875825856</v>
+        <v>1.043806528573758</v>
       </c>
       <c r="J16">
-        <v>1.06193010672708</v>
+        <v>1.030508175569396</v>
       </c>
       <c r="K16">
-        <v>1.05891991222546</v>
+        <v>1.034142798062553</v>
       </c>
       <c r="L16">
-        <v>1.064542861064381</v>
+        <v>1.028698275647156</v>
       </c>
       <c r="M16">
-        <v>1.072982776878892</v>
+        <v>1.029696337064729</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056251224787447</v>
+        <v>1.005285951455262</v>
       </c>
       <c r="D17">
-        <v>1.05594415541545</v>
+        <v>1.0223261982384</v>
       </c>
       <c r="E17">
-        <v>1.061657442376085</v>
+        <v>1.017091451531242</v>
       </c>
       <c r="F17">
-        <v>1.070192647433422</v>
+        <v>1.018417906097227</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047048627498005</v>
+        <v>1.044845727387573</v>
       </c>
       <c r="J17">
-        <v>1.06229985213106</v>
+        <v>1.032542502976992</v>
       </c>
       <c r="K17">
-        <v>1.059241932290571</v>
+        <v>1.035953773905519</v>
       </c>
       <c r="L17">
-        <v>1.064936238682391</v>
+        <v>1.03080629826801</v>
       </c>
       <c r="M17">
-        <v>1.073443502006855</v>
+        <v>1.032110529483895</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056545667946984</v>
+        <v>1.006911614361313</v>
       </c>
       <c r="D18">
-        <v>1.056173600820468</v>
+        <v>1.023574458780908</v>
       </c>
       <c r="E18">
-        <v>1.061928431714366</v>
+        <v>1.018516126431464</v>
       </c>
       <c r="F18">
-        <v>1.070502699292043</v>
+        <v>1.020022149728731</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047139875928965</v>
+        <v>1.045444275500904</v>
       </c>
       <c r="J18">
-        <v>1.062515384947563</v>
+        <v>1.033716028341067</v>
       </c>
       <c r="K18">
-        <v>1.059429613704123</v>
+        <v>1.036998306234812</v>
       </c>
       <c r="L18">
-        <v>1.065165587666517</v>
+        <v>1.032022722387307</v>
       </c>
       <c r="M18">
-        <v>1.073712171582963</v>
+        <v>1.033503998553821</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056646052605709</v>
+        <v>1.007462997002098</v>
       </c>
       <c r="D19">
-        <v>1.056251823047091</v>
+        <v>1.023997932231198</v>
       </c>
       <c r="E19">
-        <v>1.062020826348939</v>
+        <v>1.018999493036645</v>
       </c>
       <c r="F19">
-        <v>1.070608418966554</v>
+        <v>1.020566460330093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047170958424934</v>
+        <v>1.045647099488717</v>
       </c>
       <c r="J19">
-        <v>1.062588853517665</v>
+        <v>1.034113998952735</v>
       </c>
       <c r="K19">
-        <v>1.059493583274224</v>
+        <v>1.037352506091169</v>
       </c>
       <c r="L19">
-        <v>1.065243772604865</v>
+        <v>1.032435306522236</v>
       </c>
       <c r="M19">
-        <v>1.073803770274621</v>
+        <v>1.033976695878798</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.056197058057251</v>
+        <v>1.00498551897349</v>
       </c>
       <c r="D20">
-        <v>1.055901944603071</v>
+        <v>1.02209555868339</v>
       </c>
       <c r="E20">
-        <v>1.061607593187574</v>
+        <v>1.016828236997983</v>
       </c>
       <c r="F20">
-        <v>1.070135615703382</v>
+        <v>1.018121524555873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047031828379147</v>
+        <v>1.044735022826565</v>
       </c>
       <c r="J20">
-        <v>1.062260195769278</v>
+        <v>1.032325600817579</v>
       </c>
       <c r="K20">
-        <v>1.059207397852859</v>
+        <v>1.035760701160242</v>
       </c>
       <c r="L20">
-        <v>1.064894043508917</v>
+        <v>1.030581498443395</v>
       </c>
       <c r="M20">
-        <v>1.073394077163324</v>
+        <v>1.031853041238996</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054736425833378</v>
+        <v>0.9967187991293314</v>
       </c>
       <c r="D21">
-        <v>1.054763564194969</v>
+        <v>1.015755187183768</v>
       </c>
       <c r="E21">
-        <v>1.060263722557756</v>
+        <v>1.009594664320954</v>
       </c>
       <c r="F21">
-        <v>1.068598471172181</v>
+        <v>1.009977394681184</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046577359242218</v>
+        <v>1.041678640045549</v>
       </c>
       <c r="J21">
-        <v>1.061190123476784</v>
+        <v>1.02635434947452</v>
       </c>
       <c r="K21">
-        <v>1.058275243411534</v>
+        <v>1.030444096539634</v>
       </c>
       <c r="L21">
-        <v>1.063755840982589</v>
+        <v>1.024396514597187</v>
       </c>
       <c r="M21">
-        <v>1.072061370549332</v>
+        <v>1.024772176040007</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053817352356639</v>
+        <v>0.991346639699339</v>
       </c>
       <c r="D22">
-        <v>1.054047123963296</v>
+        <v>1.011641290693226</v>
       </c>
       <c r="E22">
-        <v>1.059418448459404</v>
+        <v>1.004903255777912</v>
       </c>
       <c r="F22">
-        <v>1.067631976998143</v>
+        <v>1.004696152549023</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046289966629255</v>
+        <v>1.039682771822928</v>
       </c>
       <c r="J22">
-        <v>1.060516106145079</v>
+        <v>1.022471392643207</v>
       </c>
       <c r="K22">
-        <v>1.057687817230076</v>
+        <v>1.026985605878578</v>
       </c>
       <c r="L22">
-        <v>1.063039274403961</v>
+        <v>1.020378200020826</v>
       </c>
       <c r="M22">
-        <v>1.071222849984825</v>
+        <v>1.020175148282799</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054304639788188</v>
+        <v>0.9942118803686141</v>
       </c>
       <c r="D23">
-        <v>1.054426989152226</v>
+        <v>1.013834786030459</v>
       </c>
       <c r="E23">
-        <v>1.059866576455679</v>
+        <v>1.00740450112813</v>
       </c>
       <c r="F23">
-        <v>1.068144337932157</v>
+        <v>1.007511817540278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046442475697203</v>
+        <v>1.040748149012151</v>
       </c>
       <c r="J23">
-        <v>1.060873532059885</v>
+        <v>1.024542574281613</v>
       </c>
       <c r="K23">
-        <v>1.057999351075967</v>
+        <v>1.028830483589251</v>
       </c>
       <c r="L23">
-        <v>1.063419229302021</v>
+        <v>1.022521239938952</v>
       </c>
       <c r="M23">
-        <v>1.071667423074169</v>
+        <v>1.022626519691204</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056221533907146</v>
+        <v>1.005121325799109</v>
       </c>
       <c r="D24">
-        <v>1.055921018085319</v>
+        <v>1.02219981465638</v>
       </c>
       <c r="E24">
-        <v>1.061630117996018</v>
+        <v>1.016947217042626</v>
       </c>
       <c r="F24">
-        <v>1.070161385889107</v>
+        <v>1.018255496640262</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047039419740694</v>
+        <v>1.044785068874941</v>
       </c>
       <c r="J24">
-        <v>1.062278115184366</v>
+        <v>1.032423649821741</v>
       </c>
       <c r="K24">
-        <v>1.059223002934276</v>
+        <v>1.035847978723118</v>
       </c>
       <c r="L24">
-        <v>1.064913110005173</v>
+        <v>1.030683116327526</v>
       </c>
       <c r="M24">
-        <v>1.073416410319069</v>
+        <v>1.031969434351706</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058442997324307</v>
+        <v>1.017095553138534</v>
       </c>
       <c r="D25">
-        <v>1.057651804118409</v>
+        <v>1.031403419208337</v>
       </c>
       <c r="E25">
-        <v>1.063675275024913</v>
+        <v>1.02745644625908</v>
       </c>
       <c r="F25">
-        <v>1.072502045977658</v>
+        <v>1.030091598650815</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047724998360827</v>
+        <v>1.049173822666611</v>
       </c>
       <c r="J25">
-        <v>1.063902831083202</v>
+        <v>1.041060969806211</v>
       </c>
       <c r="K25">
-        <v>1.060637206640578</v>
+        <v>1.043533040183372</v>
       </c>
       <c r="L25">
-        <v>1.066642702244386</v>
+        <v>1.039642979837289</v>
       </c>
       <c r="M25">
-        <v>1.075443529022866</v>
+        <v>1.042240073870433</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026164300461103</v>
+        <v>1.012443665433292</v>
       </c>
       <c r="D2">
-        <v>1.038387338003414</v>
+        <v>1.033256565731016</v>
       </c>
       <c r="E2">
-        <v>1.035440434075953</v>
+        <v>1.02710283525598</v>
       </c>
       <c r="F2">
-        <v>1.039088299103091</v>
+        <v>1.037751313904113</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052461715022841</v>
+        <v>1.053397357240914</v>
       </c>
       <c r="J2">
-        <v>1.04758964364659</v>
+        <v>1.034258453584263</v>
       </c>
       <c r="K2">
-        <v>1.049336577683178</v>
+        <v>1.044271239482289</v>
       </c>
       <c r="L2">
-        <v>1.046427157351186</v>
+        <v>1.038197068704896</v>
       </c>
       <c r="M2">
-        <v>1.050028661871533</v>
+        <v>1.048708621095344</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047121966925635</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042373881393532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032499967808282</v>
+        <v>1.016295163003192</v>
       </c>
       <c r="D3">
-        <v>1.043272492481981</v>
+        <v>1.035862927170052</v>
       </c>
       <c r="E3">
-        <v>1.041031161918059</v>
+        <v>1.030080779886116</v>
       </c>
       <c r="F3">
-        <v>1.045391424797308</v>
+        <v>1.040573060101994</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05473691636668</v>
+        <v>1.054231618556763</v>
       </c>
       <c r="J3">
-        <v>1.052142222719511</v>
+        <v>1.036351251793774</v>
       </c>
       <c r="K3">
-        <v>1.053380086523389</v>
+        <v>1.046056611491831</v>
       </c>
       <c r="L3">
-        <v>1.051164637774782</v>
+        <v>1.040342711859519</v>
       </c>
       <c r="M3">
-        <v>1.055474676395919</v>
+        <v>1.050711842858733</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048707366549118</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04363363127527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036493225684554</v>
+        <v>1.018743663555657</v>
       </c>
       <c r="D4">
-        <v>1.046353757456659</v>
+        <v>1.03752139906953</v>
       </c>
       <c r="E4">
-        <v>1.044560452783644</v>
+        <v>1.031979759153774</v>
       </c>
       <c r="F4">
-        <v>1.049372106712491</v>
+        <v>1.042372647957879</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056160528929569</v>
+        <v>1.05474823344294</v>
       </c>
       <c r="J4">
-        <v>1.055007355976507</v>
+        <v>1.037679760418715</v>
       </c>
       <c r="K4">
-        <v>1.055923158938337</v>
+        <v>1.047187120357766</v>
       </c>
       <c r="L4">
-        <v>1.054149249187394</v>
+        <v>1.041706949491678</v>
       </c>
       <c r="M4">
-        <v>1.058909047577723</v>
+        <v>1.051985216776259</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049715144638864</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044433880136991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038147748495735</v>
+        <v>1.01976583381299</v>
       </c>
       <c r="D5">
-        <v>1.047630877809387</v>
+        <v>1.038215655663923</v>
       </c>
       <c r="E5">
-        <v>1.046024016919391</v>
+        <v>1.032774334389188</v>
       </c>
       <c r="F5">
-        <v>1.051023283023102</v>
+        <v>1.043125693966674</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056747829959234</v>
+        <v>1.054961756222442</v>
       </c>
       <c r="J5">
-        <v>1.056193391031856</v>
+        <v>1.038235163291501</v>
       </c>
       <c r="K5">
-        <v>1.056975457554505</v>
+        <v>1.047660131487667</v>
       </c>
       <c r="L5">
-        <v>1.055385489931728</v>
+        <v>1.042277561625228</v>
       </c>
       <c r="M5">
-        <v>1.060332404880325</v>
+        <v>1.052517798670675</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050136642081041</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044775459785955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038424162326801</v>
+        <v>1.019940481655931</v>
       </c>
       <c r="D6">
-        <v>1.047844265788389</v>
+        <v>1.0383362038533</v>
       </c>
       <c r="E6">
-        <v>1.046268601598116</v>
+        <v>1.032910719943221</v>
       </c>
       <c r="F6">
-        <v>1.051299246278151</v>
+        <v>1.043254968921108</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056845796905305</v>
+        <v>1.054999506204118</v>
       </c>
       <c r="J6">
-        <v>1.056391472263714</v>
+        <v>1.038331593123236</v>
       </c>
       <c r="K6">
-        <v>1.05715117830398</v>
+        <v>1.047743528156205</v>
       </c>
       <c r="L6">
-        <v>1.055592000042658</v>
+        <v>1.042376356706941</v>
       </c>
       <c r="M6">
-        <v>1.06057022101343</v>
+        <v>1.052610068153125</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050209666226928</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044843115802429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036515427211167</v>
+        <v>1.018767039119968</v>
       </c>
       <c r="D7">
-        <v>1.046370893002803</v>
+        <v>1.037542359715049</v>
       </c>
       <c r="E7">
-        <v>1.044580086919549</v>
+        <v>1.031999392201719</v>
       </c>
       <c r="F7">
-        <v>1.049394256011564</v>
+        <v>1.042391274739579</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056168419856541</v>
+        <v>1.054757038716128</v>
       </c>
       <c r="J7">
-        <v>1.055023275315528</v>
+        <v>1.037696647532572</v>
       </c>
       <c r="K7">
-        <v>1.055937284896552</v>
+        <v>1.047204993378899</v>
       </c>
       <c r="L7">
-        <v>1.054165839446041</v>
+        <v>1.041723486201667</v>
       </c>
       <c r="M7">
-        <v>1.058928145652216</v>
+        <v>1.052000801655056</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049727478870314</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044466503332012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,81 +751,105 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028328247443265</v>
+        <v>1.013766521562679</v>
       </c>
       <c r="D8">
-        <v>1.040055343820016</v>
+        <v>1.034157580508013</v>
       </c>
       <c r="E8">
-        <v>1.03734874177649</v>
+        <v>1.028126298866642</v>
       </c>
       <c r="F8">
-        <v>1.041239435928676</v>
+        <v>1.038720982835876</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053240971648108</v>
+        <v>1.053691404882493</v>
       </c>
       <c r="J8">
-        <v>1.049145447448738</v>
+        <v>1.034982785801368</v>
       </c>
       <c r="K8">
-        <v>1.050718756396317</v>
+        <v>1.044893920420342</v>
       </c>
       <c r="L8">
-        <v>1.048045494008745</v>
+        <v>1.03893829676368</v>
       </c>
       <c r="M8">
-        <v>1.0518883307518</v>
+        <v>1.049400804918378</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047669778836184</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042836946519865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.013027477231909</v>
+        <v>1.004590421631043</v>
       </c>
       <c r="D9">
-        <v>1.02827420848649</v>
+        <v>1.027952862691021</v>
       </c>
       <c r="E9">
-        <v>1.023881937385178</v>
+        <v>1.021064474035381</v>
       </c>
       <c r="F9">
-        <v>1.026065119426343</v>
+        <v>1.032031030900262</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047688371597022</v>
+        <v>1.051623278790479</v>
       </c>
       <c r="J9">
-        <v>1.038128442682862</v>
+        <v>1.029982115175805</v>
       </c>
       <c r="K9">
-        <v>1.040924627344635</v>
+        <v>1.040608138213175</v>
       </c>
       <c r="L9">
-        <v>1.036599075477158</v>
+        <v>1.033824795488659</v>
       </c>
       <c r="M9">
-        <v>1.038749003667382</v>
+        <v>1.044624956464611</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043890042408065</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039803479440762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002147813966513</v>
+        <v>0.9982774490548367</v>
       </c>
       <c r="D10">
-        <v>1.019917806315925</v>
+        <v>1.023712026609233</v>
       </c>
       <c r="E10">
-        <v>1.014343210031485</v>
+        <v>1.016264112975261</v>
       </c>
       <c r="F10">
-        <v>1.015323494036763</v>
+        <v>1.027516647306324</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043688042590209</v>
+        <v>1.050146130972614</v>
       </c>
       <c r="J10">
-        <v>1.030276474623711</v>
+        <v>1.026559577176331</v>
       </c>
       <c r="K10">
-        <v>1.033936515873039</v>
+        <v>1.037665956477846</v>
       </c>
       <c r="L10">
-        <v>1.028458234106668</v>
+        <v>1.030345794465968</v>
       </c>
       <c r="M10">
-        <v>1.029421482169943</v>
+        <v>1.041406239443575</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041393908187833</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037739935905935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.997252424820406</v>
+        <v>0.9959521143004051</v>
       </c>
       <c r="D11">
-        <v>1.01616411041701</v>
+        <v>1.022266473934344</v>
       </c>
       <c r="E11">
-        <v>1.010061072149711</v>
+        <v>1.014688881335861</v>
       </c>
       <c r="F11">
-        <v>1.010502467546632</v>
+        <v>1.026287480476826</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041876498446341</v>
+        <v>1.049693426155365</v>
       </c>
       <c r="J11">
-        <v>1.026739954533003</v>
+        <v>1.025494265043817</v>
       </c>
       <c r="K11">
-        <v>1.030787500264601</v>
+        <v>1.036780348738243</v>
       </c>
       <c r="L11">
-        <v>1.024795713276366</v>
+        <v>1.029339003339359</v>
       </c>
       <c r="M11">
-        <v>1.025229003831107</v>
+        <v>1.040730115827387</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041293630055633</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037146520661917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9954041143354438</v>
+        <v>0.9952444265008984</v>
       </c>
       <c r="D12">
-        <v>1.014747945184861</v>
+        <v>1.021870408153502</v>
       </c>
       <c r="E12">
-        <v>1.008445893233028</v>
+        <v>1.014288956878493</v>
       </c>
       <c r="F12">
-        <v>1.008684152221101</v>
+        <v>1.02609746311887</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041190867076816</v>
+        <v>1.049594835885812</v>
       </c>
       <c r="J12">
-        <v>1.025404261994941</v>
+        <v>1.025251423353936</v>
       </c>
       <c r="K12">
-        <v>1.029597949080614</v>
+        <v>1.036590267234168</v>
       </c>
       <c r="L12">
-        <v>1.023413052572758</v>
+        <v>1.02914742932185</v>
       </c>
       <c r="M12">
-        <v>1.023646847551859</v>
+        <v>1.040741193241993</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041627819559078</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037012127617748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9958019768661319</v>
+        <v>0.9957504751830173</v>
       </c>
       <c r="D13">
-        <v>1.01505273394173</v>
+        <v>1.022273335037862</v>
       </c>
       <c r="E13">
-        <v>1.008793498806025</v>
+        <v>1.014781724611238</v>
       </c>
       <c r="F13">
-        <v>1.009075470114643</v>
+        <v>1.026715696734136</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041338528073661</v>
+        <v>1.049776853850158</v>
       </c>
       <c r="J13">
-        <v>1.025691798127466</v>
+        <v>1.025642494471923</v>
       </c>
       <c r="K13">
-        <v>1.029854034435727</v>
+        <v>1.036943257349244</v>
       </c>
       <c r="L13">
-        <v>1.023710671523238</v>
+        <v>1.029588003518182</v>
       </c>
       <c r="M13">
-        <v>1.023987382573968</v>
+        <v>1.041305982607775</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042350309786162</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03725921646957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9971002675675752</v>
+        <v>0.9966549785875943</v>
       </c>
       <c r="D14">
-        <v>1.016047505523659</v>
+        <v>1.022918313266063</v>
       </c>
       <c r="E14">
-        <v>1.009928073891055</v>
+        <v>1.015530988688195</v>
       </c>
       <c r="F14">
-        <v>1.010352740152139</v>
+        <v>1.027514829490795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04182008893875</v>
+        <v>1.050031548363608</v>
       </c>
       <c r="J14">
-        <v>1.026630005597384</v>
+        <v>1.026203433505226</v>
       </c>
       <c r="K14">
-        <v>1.030689585300572</v>
+        <v>1.037437009991387</v>
       </c>
       <c r="L14">
-        <v>1.02468188549346</v>
+        <v>1.030182431621828</v>
       </c>
       <c r="M14">
-        <v>1.02509874103758</v>
+        <v>1.041952178007195</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043034007419545</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037609734120478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9978961482836465</v>
+        <v>0.9971449096444982</v>
       </c>
       <c r="D15">
-        <v>1.016657469438722</v>
+        <v>1.023256493439041</v>
       </c>
       <c r="E15">
-        <v>1.010623806094118</v>
+        <v>1.015915778706239</v>
       </c>
       <c r="F15">
-        <v>1.011135989679579</v>
+        <v>1.027897747771318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042115079948147</v>
+        <v>1.050158324173412</v>
       </c>
       <c r="J15">
-        <v>1.027205092209026</v>
+        <v>1.026485136912159</v>
       </c>
       <c r="K15">
-        <v>1.031201719823955</v>
+        <v>1.037683192390314</v>
       </c>
       <c r="L15">
-        <v>1.025277285632409</v>
+        <v>1.030473365236317</v>
       </c>
       <c r="M15">
-        <v>1.025780131115412</v>
+        <v>1.042242940801339</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043301275433228</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037789644162284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00246863365413</v>
+        <v>0.999727181101508</v>
       </c>
       <c r="D16">
-        <v>1.020163947464903</v>
+        <v>1.024985332056787</v>
       </c>
       <c r="E16">
-        <v>1.014624054058055</v>
+        <v>1.017861209220292</v>
       </c>
       <c r="F16">
-        <v>1.015639700910392</v>
+        <v>1.029718204654549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043806528573758</v>
+        <v>1.050771824884016</v>
       </c>
       <c r="J16">
-        <v>1.030508175569396</v>
+        <v>1.027874807496442</v>
       </c>
       <c r="K16">
-        <v>1.034142798062553</v>
+        <v>1.038882263519461</v>
       </c>
       <c r="L16">
-        <v>1.028698275647156</v>
+        <v>1.031879539181466</v>
       </c>
       <c r="M16">
-        <v>1.029696337064729</v>
+        <v>1.043535682202674</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044284439042242</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038640578851898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005285951455262</v>
+        <v>1.001235035974094</v>
       </c>
       <c r="D17">
-        <v>1.0223261982384</v>
+        <v>1.025973945776008</v>
       </c>
       <c r="E17">
-        <v>1.017091451531242</v>
+        <v>1.01896187601687</v>
       </c>
       <c r="F17">
-        <v>1.018417906097227</v>
+        <v>1.030692605517853</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044845727387573</v>
+        <v>1.051105268442126</v>
       </c>
       <c r="J17">
-        <v>1.032542502976992</v>
+        <v>1.028645836163369</v>
       </c>
       <c r="K17">
-        <v>1.035953773905519</v>
+        <v>1.039541385073802</v>
       </c>
       <c r="L17">
-        <v>1.03080629826801</v>
+        <v>1.03264540731582</v>
       </c>
       <c r="M17">
-        <v>1.032110529483895</v>
+        <v>1.044183064420459</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044667475485918</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039109176097956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006911614361313</v>
+        <v>1.001947413476282</v>
       </c>
       <c r="D18">
-        <v>1.023574458780908</v>
+        <v>1.026399091654215</v>
       </c>
       <c r="E18">
-        <v>1.018516126431464</v>
+        <v>1.019415060704292</v>
       </c>
       <c r="F18">
-        <v>1.020022149728731</v>
+        <v>1.030992881829269</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045444275500904</v>
+        <v>1.05122198950283</v>
       </c>
       <c r="J18">
-        <v>1.033716028341067</v>
+        <v>1.028937051217506</v>
       </c>
       <c r="K18">
-        <v>1.036998306234812</v>
+        <v>1.039777186853889</v>
       </c>
       <c r="L18">
-        <v>1.032022722387307</v>
+        <v>1.032906873966168</v>
       </c>
       <c r="M18">
-        <v>1.033503998553821</v>
+        <v>1.04429725496655</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044520831528573</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039264302664003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007462997002098</v>
+        <v>1.001945934004852</v>
       </c>
       <c r="D19">
-        <v>1.023997932231198</v>
+        <v>1.026323827318407</v>
       </c>
       <c r="E19">
-        <v>1.018999493036645</v>
+        <v>1.019285517983431</v>
       </c>
       <c r="F19">
-        <v>1.020566460330093</v>
+        <v>1.030685522580288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045647099488717</v>
+        <v>1.051150066391273</v>
       </c>
       <c r="J19">
-        <v>1.034113998952735</v>
+        <v>1.028801428738408</v>
       </c>
       <c r="K19">
-        <v>1.037352506091169</v>
+        <v>1.03964094446132</v>
       </c>
       <c r="L19">
-        <v>1.032435306522236</v>
+        <v>1.032716655082515</v>
       </c>
       <c r="M19">
-        <v>1.033976695878798</v>
+        <v>1.043932981934789</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.0439085059227</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039174345902155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00498551897349</v>
+        <v>0.9999386556879678</v>
       </c>
       <c r="D20">
-        <v>1.02209555868339</v>
+        <v>1.024839324081886</v>
       </c>
       <c r="E20">
-        <v>1.016828236997983</v>
+        <v>1.017529883348571</v>
       </c>
       <c r="F20">
-        <v>1.018121524555873</v>
+        <v>1.028708101377491</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044735022826565</v>
+        <v>1.050548860934962</v>
       </c>
       <c r="J20">
-        <v>1.032325600817579</v>
+        <v>1.027471942260317</v>
       </c>
       <c r="K20">
-        <v>1.035760701160242</v>
+        <v>1.038459026798447</v>
       </c>
       <c r="L20">
-        <v>1.030581498443395</v>
+        <v>1.03127133877904</v>
       </c>
       <c r="M20">
-        <v>1.031853041238996</v>
+        <v>1.042264262272799</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042062428351283</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038342599171675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9967187991293314</v>
+        <v>0.9951067880232575</v>
       </c>
       <c r="D21">
-        <v>1.015755187183768</v>
+        <v>1.021574518043839</v>
       </c>
       <c r="E21">
-        <v>1.009594664320954</v>
+        <v>1.013832130520935</v>
       </c>
       <c r="F21">
-        <v>1.009977394681184</v>
+        <v>1.025182061669854</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041678640045549</v>
+        <v>1.049373038196806</v>
       </c>
       <c r="J21">
-        <v>1.02635434947452</v>
+        <v>1.024810526646969</v>
       </c>
       <c r="K21">
-        <v>1.030444096539634</v>
+        <v>1.036158366644916</v>
       </c>
       <c r="L21">
-        <v>1.024396514597187</v>
+        <v>1.028556103449401</v>
       </c>
       <c r="M21">
-        <v>1.024772176040007</v>
+        <v>1.03970155768443</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039993510139087</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036719178906716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.991346639699339</v>
+        <v>0.9920273578751614</v>
       </c>
       <c r="D22">
-        <v>1.011641290693226</v>
+        <v>1.019499955111555</v>
       </c>
       <c r="E22">
-        <v>1.004903255777912</v>
+        <v>1.011493535244187</v>
       </c>
       <c r="F22">
-        <v>1.004696152549023</v>
+        <v>1.022968755752015</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039682771822928</v>
+        <v>1.048613490370378</v>
       </c>
       <c r="J22">
-        <v>1.022471392643207</v>
+        <v>1.023121510868567</v>
       </c>
       <c r="K22">
-        <v>1.026985605878578</v>
+        <v>1.034694765243035</v>
       </c>
       <c r="L22">
-        <v>1.020378200020826</v>
+        <v>1.026840690499261</v>
       </c>
       <c r="M22">
-        <v>1.020175148282799</v>
+        <v>1.038098528216405</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038724817782537</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035670883990347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9942118803686141</v>
+        <v>0.9936570046801472</v>
       </c>
       <c r="D23">
-        <v>1.013834786030459</v>
+        <v>1.020593355707911</v>
       </c>
       <c r="E23">
-        <v>1.00740450112813</v>
+        <v>1.012728825779209</v>
       </c>
       <c r="F23">
-        <v>1.007511817540278</v>
+        <v>1.024138083451543</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040748149012151</v>
+        <v>1.049013794426864</v>
       </c>
       <c r="J23">
-        <v>1.024542574281613</v>
+        <v>1.024011854729415</v>
       </c>
       <c r="K23">
-        <v>1.028830483589251</v>
+        <v>1.035463973741116</v>
       </c>
       <c r="L23">
-        <v>1.022521239938952</v>
+        <v>1.027745198632784</v>
       </c>
       <c r="M23">
-        <v>1.022626519691204</v>
+        <v>1.038943958604129</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039393920590844</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036205131014008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005121325799109</v>
+        <v>0.9999585862844801</v>
       </c>
       <c r="D24">
-        <v>1.02219981465638</v>
+        <v>1.024835327555667</v>
       </c>
       <c r="E24">
-        <v>1.016947217042626</v>
+        <v>1.017524683303721</v>
       </c>
       <c r="F24">
-        <v>1.018255496640262</v>
+        <v>1.028678473451442</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044785068874941</v>
+        <v>1.050538682516767</v>
       </c>
       <c r="J24">
-        <v>1.032423649821741</v>
+        <v>1.027458230487882</v>
       </c>
       <c r="K24">
-        <v>1.035847978723118</v>
+        <v>1.038439906043295</v>
       </c>
       <c r="L24">
-        <v>1.030683116327526</v>
+        <v>1.031250879914058</v>
       </c>
       <c r="M24">
-        <v>1.031969434351706</v>
+        <v>1.042220009202578</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041986694306046</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038301765400091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017095553138534</v>
+        <v>1.007021362601134</v>
       </c>
       <c r="D25">
-        <v>1.031403419208337</v>
+        <v>1.029602132495484</v>
       </c>
       <c r="E25">
-        <v>1.02745644625908</v>
+        <v>1.022931897665342</v>
       </c>
       <c r="F25">
-        <v>1.030091598650815</v>
+        <v>1.033799604965994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049173822666611</v>
+        <v>1.052188911029614</v>
       </c>
       <c r="J25">
-        <v>1.041060969806211</v>
+        <v>1.03131471854805</v>
       </c>
       <c r="K25">
-        <v>1.043533040183372</v>
+        <v>1.041757658197859</v>
       </c>
       <c r="L25">
-        <v>1.039642979837289</v>
+        <v>1.035184357803129</v>
       </c>
       <c r="M25">
-        <v>1.042240073870433</v>
+        <v>1.045894942886257</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044895146121197</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040644716243662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012443665433292</v>
+        <v>1.011288202495647</v>
       </c>
       <c r="D2">
-        <v>1.033256565731016</v>
+        <v>1.031669474133694</v>
       </c>
       <c r="E2">
-        <v>1.02710283525598</v>
+        <v>1.026077082304649</v>
       </c>
       <c r="F2">
-        <v>1.037751313904113</v>
+        <v>1.036640339691469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053397357240914</v>
+        <v>1.052591387511656</v>
       </c>
       <c r="J2">
-        <v>1.034258453584263</v>
+        <v>1.033136448805622</v>
       </c>
       <c r="K2">
-        <v>1.044271239482289</v>
+        <v>1.042704553304719</v>
       </c>
       <c r="L2">
-        <v>1.038197068704896</v>
+        <v>1.037184693625463</v>
       </c>
       <c r="M2">
-        <v>1.048708621095344</v>
+        <v>1.047611768458168</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047121966925635</v>
+        <v>1.046253888974124</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042373881393532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041274841092879</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023398387428783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016295163003192</v>
+        <v>1.015018227763921</v>
       </c>
       <c r="D3">
-        <v>1.035862927170052</v>
+        <v>1.03410993823277</v>
       </c>
       <c r="E3">
-        <v>1.030080779886116</v>
+        <v>1.028943993760625</v>
       </c>
       <c r="F3">
-        <v>1.040573060101994</v>
+        <v>1.039346045666241</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054231618556763</v>
+        <v>1.053340488819927</v>
       </c>
       <c r="J3">
-        <v>1.036351251793774</v>
+        <v>1.035107688262936</v>
       </c>
       <c r="K3">
-        <v>1.046056611491831</v>
+        <v>1.044324213569652</v>
       </c>
       <c r="L3">
-        <v>1.040342711859519</v>
+        <v>1.039219455253496</v>
       </c>
       <c r="M3">
-        <v>1.050711842858733</v>
+        <v>1.04949907131389</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048707366549118</v>
+        <v>1.047747549331981</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04363363127527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042417142691075</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023728954062148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018743663555657</v>
+        <v>1.017390302386715</v>
       </c>
       <c r="D4">
-        <v>1.03752139906953</v>
+        <v>1.035663511847726</v>
       </c>
       <c r="E4">
-        <v>1.031979759153774</v>
+        <v>1.030773017617599</v>
       </c>
       <c r="F4">
-        <v>1.042372647957879</v>
+        <v>1.04107239969299</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05474823344294</v>
+        <v>1.053803142234709</v>
       </c>
       <c r="J4">
-        <v>1.037679760418715</v>
+        <v>1.036359386129873</v>
       </c>
       <c r="K4">
-        <v>1.047187120357766</v>
+        <v>1.045349751092715</v>
       </c>
       <c r="L4">
-        <v>1.041706949491678</v>
+        <v>1.040513701260238</v>
       </c>
       <c r="M4">
-        <v>1.051985216776259</v>
+        <v>1.050699154958225</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049715144638864</v>
+        <v>1.048697325039147</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044433880136991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043143251136276</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023935829571912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01976583381299</v>
+        <v>1.018380783980656</v>
       </c>
       <c r="D5">
-        <v>1.038215655663923</v>
+        <v>1.036314203607157</v>
       </c>
       <c r="E5">
-        <v>1.032774334389188</v>
+        <v>1.03153856127547</v>
       </c>
       <c r="F5">
-        <v>1.043125693966674</v>
+        <v>1.041795045921586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054961756222442</v>
+        <v>1.053994227288612</v>
       </c>
       <c r="J5">
-        <v>1.038235163291501</v>
+        <v>1.036882868685574</v>
       </c>
       <c r="K5">
-        <v>1.047660131487667</v>
+        <v>1.045779123954619</v>
       </c>
       <c r="L5">
-        <v>1.042277561625228</v>
+        <v>1.041055237479404</v>
       </c>
       <c r="M5">
-        <v>1.052517798670675</v>
+        <v>1.051201283802756</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050136642081041</v>
+        <v>1.049094721793741</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044775459785955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043454687712531</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02402227129368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019940481655931</v>
+        <v>1.018550070934767</v>
       </c>
       <c r="D6">
-        <v>1.0383362038533</v>
+        <v>1.036427432089021</v>
       </c>
       <c r="E6">
-        <v>1.032910719943221</v>
+        <v>1.031670027187644</v>
       </c>
       <c r="F6">
-        <v>1.043254968921108</v>
+        <v>1.041919194323247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054999506204118</v>
+        <v>1.054028205829522</v>
       </c>
       <c r="J6">
-        <v>1.038331593123236</v>
+        <v>1.036973896091124</v>
       </c>
       <c r="K6">
-        <v>1.047743528156205</v>
+        <v>1.045855186357287</v>
       </c>
       <c r="L6">
-        <v>1.042376356706941</v>
+        <v>1.041149104457487</v>
       </c>
       <c r="M6">
-        <v>1.052610068153125</v>
+        <v>1.051288416493701</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050209666226928</v>
+        <v>1.049163680663791</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044843115802429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043518028401077</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024038058626649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018767039119968</v>
+        <v>1.017413056277823</v>
       </c>
       <c r="D7">
-        <v>1.037542359715049</v>
+        <v>1.035683780582828</v>
       </c>
       <c r="E7">
-        <v>1.031999392201719</v>
+        <v>1.03079206091759</v>
       </c>
       <c r="F7">
-        <v>1.042391274739579</v>
+        <v>1.04109048444487</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054757038716128</v>
+        <v>1.053811591639999</v>
       </c>
       <c r="J7">
-        <v>1.037696647532572</v>
+        <v>1.036375652692909</v>
       </c>
       <c r="K7">
-        <v>1.047204993378899</v>
+        <v>1.045366932009727</v>
       </c>
       <c r="L7">
-        <v>1.041723486201667</v>
+        <v>1.040529649694079</v>
       </c>
       <c r="M7">
-        <v>1.052000801655056</v>
+        <v>1.050714198389854</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049727478870314</v>
+        <v>1.048709230773151</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044466503332012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043177388023337</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023940659358481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013766521562679</v>
+        <v>1.012569242462884</v>
       </c>
       <c r="D8">
-        <v>1.034157580508013</v>
+        <v>1.032513734307091</v>
       </c>
       <c r="E8">
-        <v>1.028126298866642</v>
+        <v>1.027062316330747</v>
       </c>
       <c r="F8">
-        <v>1.038720982835876</v>
+        <v>1.037570190764616</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053691404882493</v>
+        <v>1.05285632587937</v>
       </c>
       <c r="J8">
-        <v>1.034982785801368</v>
+        <v>1.033819015900993</v>
       </c>
       <c r="K8">
-        <v>1.044893920420342</v>
+        <v>1.043270585834857</v>
       </c>
       <c r="L8">
-        <v>1.03893829676368</v>
+        <v>1.037887776196756</v>
       </c>
       <c r="M8">
-        <v>1.049400804918378</v>
+        <v>1.04826420707778</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047669778836184</v>
+        <v>1.046770246136648</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042836946519865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041700123979044</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023516087232835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004590421631043</v>
+        <v>1.003687496389106</v>
       </c>
       <c r="D9">
-        <v>1.027952862691021</v>
+        <v>1.026707419230256</v>
       </c>
       <c r="E9">
-        <v>1.021064474035381</v>
+        <v>1.020268838409638</v>
       </c>
       <c r="F9">
-        <v>1.032031030900262</v>
+        <v>1.031159871405376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051623278790479</v>
+        <v>1.050992052807828</v>
       </c>
       <c r="J9">
-        <v>1.029982115175805</v>
+        <v>1.029110708284964</v>
       </c>
       <c r="K9">
-        <v>1.040608138213175</v>
+        <v>1.039381554381574</v>
       </c>
       <c r="L9">
-        <v>1.033824795488659</v>
+        <v>1.033041409729719</v>
       </c>
       <c r="M9">
-        <v>1.044624956464611</v>
+        <v>1.043766850391172</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043890042408065</v>
+        <v>1.043210911843452</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039803479440762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038946906499322</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022707127702063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9982774490548367</v>
+        <v>0.9975795365490134</v>
       </c>
       <c r="D10">
-        <v>1.023712026609233</v>
+        <v>1.022741863893293</v>
       </c>
       <c r="E10">
-        <v>1.016264112975261</v>
+        <v>1.015654253074361</v>
       </c>
       <c r="F10">
-        <v>1.027516647306324</v>
+        <v>1.026839232260301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050146130972614</v>
+        <v>1.049655159191902</v>
       </c>
       <c r="J10">
-        <v>1.026559577176331</v>
+        <v>1.025889517847155</v>
       </c>
       <c r="K10">
-        <v>1.037665956477846</v>
+        <v>1.03671229853142</v>
       </c>
       <c r="L10">
-        <v>1.030345794465968</v>
+        <v>1.029746502687753</v>
       </c>
       <c r="M10">
-        <v>1.041406239443575</v>
+        <v>1.040740234769906</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041393908187833</v>
+        <v>1.040866843252184</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037739935905935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037078025123084</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022144431129588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9959521143004051</v>
+        <v>0.9953076035082103</v>
       </c>
       <c r="D11">
-        <v>1.022266473934344</v>
+        <v>1.0213788207823</v>
       </c>
       <c r="E11">
-        <v>1.014688881335861</v>
+        <v>1.014125263745123</v>
       </c>
       <c r="F11">
-        <v>1.026287480476826</v>
+        <v>1.025665116108771</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049693426155365</v>
+        <v>1.049244488193533</v>
       </c>
       <c r="J11">
-        <v>1.025494265043817</v>
+        <v>1.024876903017521</v>
       </c>
       <c r="K11">
-        <v>1.036780348738243</v>
+        <v>1.035908520107164</v>
       </c>
       <c r="L11">
-        <v>1.029339003339359</v>
+        <v>1.028785625599075</v>
       </c>
       <c r="M11">
-        <v>1.040730115827387</v>
+        <v>1.040118730399016</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041293630055633</v>
+        <v>1.040810031612972</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037146520661917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03654569590489</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022009393934048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9952444265008984</v>
+        <v>0.9946067003059099</v>
       </c>
       <c r="D12">
-        <v>1.021870408153502</v>
+        <v>1.020999872194077</v>
       </c>
       <c r="E12">
-        <v>1.014288956878493</v>
+        <v>1.013729951457832</v>
       </c>
       <c r="F12">
-        <v>1.02609746311887</v>
+        <v>1.025485075899057</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049594835885812</v>
+        <v>1.049154652857627</v>
       </c>
       <c r="J12">
-        <v>1.025251423353936</v>
+        <v>1.024641081255865</v>
       </c>
       <c r="K12">
-        <v>1.036590267234168</v>
+        <v>1.035735511391541</v>
       </c>
       <c r="L12">
-        <v>1.02914742932185</v>
+        <v>1.028598751312925</v>
       </c>
       <c r="M12">
-        <v>1.040741193241993</v>
+        <v>1.04013978456774</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041627819559078</v>
+        <v>1.041152272755241</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037012127617748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036423376173388</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021997438347846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9957504751830173</v>
+        <v>0.9950833188134314</v>
       </c>
       <c r="D13">
-        <v>1.022273335037862</v>
+        <v>1.021369885694783</v>
       </c>
       <c r="E13">
-        <v>1.014781724611238</v>
+        <v>1.014194994321921</v>
       </c>
       <c r="F13">
-        <v>1.026715696734136</v>
+        <v>1.026078659377292</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049776853850158</v>
+        <v>1.049320000574401</v>
       </c>
       <c r="J13">
-        <v>1.025642494471923</v>
+        <v>1.025003840831033</v>
       </c>
       <c r="K13">
-        <v>1.036943257349244</v>
+        <v>1.036056113995505</v>
       </c>
       <c r="L13">
-        <v>1.029588003518182</v>
+        <v>1.02901206327946</v>
       </c>
       <c r="M13">
-        <v>1.041305982607775</v>
+        <v>1.040680310174118</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042350309786162</v>
+        <v>1.041855700859643</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03725921646957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036647318320481</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022086549434712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9966549785875943</v>
+        <v>0.9959512894679823</v>
       </c>
       <c r="D14">
-        <v>1.022918313266063</v>
+        <v>1.021969495793481</v>
       </c>
       <c r="E14">
-        <v>1.015530988688195</v>
+        <v>1.014910668179183</v>
       </c>
       <c r="F14">
-        <v>1.027514829490795</v>
+        <v>1.026845209343672</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050031548363608</v>
+        <v>1.049551671423578</v>
       </c>
       <c r="J14">
-        <v>1.026203433505226</v>
+        <v>1.025529371240271</v>
       </c>
       <c r="K14">
-        <v>1.037437009991387</v>
+        <v>1.036505102794335</v>
       </c>
       <c r="L14">
-        <v>1.030182431621828</v>
+        <v>1.02957337235737</v>
       </c>
       <c r="M14">
-        <v>1.041952178007195</v>
+        <v>1.041294349904279</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043034007419545</v>
+        <v>1.042514048596495</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037609734120478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036966319717581</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022194820536119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9971449096444982</v>
+        <v>0.9964239723423782</v>
       </c>
       <c r="D15">
-        <v>1.023256493439041</v>
+        <v>1.022285224012711</v>
       </c>
       <c r="E15">
-        <v>1.015915778706239</v>
+        <v>1.015279789121017</v>
       </c>
       <c r="F15">
-        <v>1.027897747771318</v>
+        <v>1.027212249500173</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050158324173412</v>
+        <v>1.049667041207129</v>
       </c>
       <c r="J15">
-        <v>1.026485136912159</v>
+        <v>1.025794284257475</v>
       </c>
       <c r="K15">
-        <v>1.037683192390314</v>
+        <v>1.036729101078053</v>
       </c>
       <c r="L15">
-        <v>1.030473365236317</v>
+        <v>1.029848831382076</v>
       </c>
       <c r="M15">
-        <v>1.042242940801339</v>
+        <v>1.041569420641903</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043301275433228</v>
+        <v>1.042768927289665</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037789644162284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037131115201645</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022245494508211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.999727181101508</v>
+        <v>0.9989242597478191</v>
       </c>
       <c r="D16">
-        <v>1.024985332056787</v>
+        <v>1.023902559021445</v>
       </c>
       <c r="E16">
-        <v>1.017861209220292</v>
+        <v>1.017151535643124</v>
       </c>
       <c r="F16">
-        <v>1.029718204654549</v>
+        <v>1.02895478457553</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050771824884016</v>
+        <v>1.05022381638005</v>
       </c>
       <c r="J16">
-        <v>1.027874807496442</v>
+        <v>1.027103701173815</v>
       </c>
       <c r="K16">
-        <v>1.038882263519461</v>
+        <v>1.037817800962364</v>
       </c>
       <c r="L16">
-        <v>1.031879539181466</v>
+        <v>1.031182079218303</v>
       </c>
       <c r="M16">
-        <v>1.043535682202674</v>
+        <v>1.04278501445662</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044284439042242</v>
+        <v>1.043691096724144</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038640578851898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03790430996507</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022475455330323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001235035974094</v>
+        <v>1.000388365921312</v>
       </c>
       <c r="D17">
-        <v>1.025973945776008</v>
+        <v>1.024829519695005</v>
       </c>
       <c r="E17">
-        <v>1.01896187601687</v>
+        <v>1.018213173340726</v>
       </c>
       <c r="F17">
-        <v>1.030692605517853</v>
+        <v>1.029886468330904</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051105268442126</v>
+        <v>1.050525840891474</v>
       </c>
       <c r="J17">
-        <v>1.028645836163369</v>
+        <v>1.027831627976164</v>
       </c>
       <c r="K17">
-        <v>1.039541385073802</v>
+        <v>1.038415766595824</v>
       </c>
       <c r="L17">
-        <v>1.03264540731582</v>
+        <v>1.031909221939201</v>
       </c>
       <c r="M17">
-        <v>1.044183064420459</v>
+        <v>1.043390014412378</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044667475485918</v>
+        <v>1.044040571156747</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039109176097956</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038329913897351</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022594022080321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001947413476282</v>
+        <v>1.001087254189712</v>
       </c>
       <c r="D18">
-        <v>1.026399091654215</v>
+        <v>1.025231640773976</v>
       </c>
       <c r="E18">
-        <v>1.019415060704292</v>
+        <v>1.018654992701094</v>
       </c>
       <c r="F18">
-        <v>1.030992881829269</v>
+        <v>1.030171566083554</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05122198950283</v>
+        <v>1.050630778781273</v>
       </c>
       <c r="J18">
-        <v>1.028937051217506</v>
+        <v>1.028109249204183</v>
       </c>
       <c r="K18">
-        <v>1.039777186853889</v>
+        <v>1.038628606625277</v>
       </c>
       <c r="L18">
-        <v>1.032906873966168</v>
+        <v>1.032159302852642</v>
       </c>
       <c r="M18">
-        <v>1.04429725496655</v>
+        <v>1.043489057977924</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044520831528573</v>
+        <v>1.043881821059136</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039264302664003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038467666292382</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022621861097841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001945934004852</v>
+        <v>1.001100505398896</v>
       </c>
       <c r="D19">
-        <v>1.026323827318407</v>
+        <v>1.025169349028546</v>
       </c>
       <c r="E19">
-        <v>1.019285517983431</v>
+        <v>1.018539934077122</v>
       </c>
       <c r="F19">
-        <v>1.030685522580288</v>
+        <v>1.029874838286018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051150066391273</v>
+        <v>1.050565387400425</v>
       </c>
       <c r="J19">
-        <v>1.028801428738408</v>
+        <v>1.027987616833604</v>
       </c>
       <c r="K19">
-        <v>1.03964094446132</v>
+        <v>1.038505030880694</v>
       </c>
       <c r="L19">
-        <v>1.032716655082515</v>
+        <v>1.031983268227669</v>
       </c>
       <c r="M19">
-        <v>1.043932981934789</v>
+        <v>1.043135187347723</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.0439085059227</v>
+        <v>1.043277515450514</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039174345902155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038387291982373</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022571450402795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9999386556879678</v>
+        <v>0.9991861292522081</v>
       </c>
       <c r="D20">
-        <v>1.024839324081886</v>
+        <v>1.023796839647749</v>
       </c>
       <c r="E20">
-        <v>1.017529883348571</v>
+        <v>1.016870523280434</v>
       </c>
       <c r="F20">
-        <v>1.028708101377491</v>
+        <v>1.027979444982444</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050548860934962</v>
+        <v>1.050021088625169</v>
       </c>
       <c r="J20">
-        <v>1.027471942260317</v>
+        <v>1.026748460342032</v>
       </c>
       <c r="K20">
-        <v>1.038459026798447</v>
+        <v>1.037433770121659</v>
       </c>
       <c r="L20">
-        <v>1.03127133877904</v>
+        <v>1.030623072614999</v>
       </c>
       <c r="M20">
-        <v>1.042264262272799</v>
+        <v>1.041547526526111</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042062428351283</v>
+        <v>1.041495208979358</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038342599171675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037634177987805</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022300848368446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9951067880232575</v>
+        <v>0.9945177686161664</v>
       </c>
       <c r="D21">
-        <v>1.021574518043839</v>
+        <v>1.020747871649335</v>
       </c>
       <c r="E21">
-        <v>1.013832130520935</v>
+        <v>1.013320887063432</v>
       </c>
       <c r="F21">
-        <v>1.025182061669854</v>
+        <v>1.024606311431957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049373038196806</v>
+        <v>1.048954991759803</v>
       </c>
       <c r="J21">
-        <v>1.024810526646969</v>
+        <v>1.024246501437528</v>
       </c>
       <c r="K21">
-        <v>1.036158366644916</v>
+        <v>1.035346549477155</v>
       </c>
       <c r="L21">
-        <v>1.028556103449401</v>
+        <v>1.028054210780106</v>
       </c>
       <c r="M21">
-        <v>1.03970155768443</v>
+        <v>1.039136038434057</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039993510139087</v>
+        <v>1.039545939115306</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036719178906716</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036162005025343</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021848834471965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9920273578751614</v>
+        <v>0.9915426672109137</v>
       </c>
       <c r="D22">
-        <v>1.019499955111555</v>
+        <v>1.018810371323354</v>
       </c>
       <c r="E22">
-        <v>1.011493535244187</v>
+        <v>1.011076444059021</v>
       </c>
       <c r="F22">
-        <v>1.022968755752015</v>
+        <v>1.022490298937752</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048613490370378</v>
+        <v>1.04826499377675</v>
       </c>
       <c r="J22">
-        <v>1.023121510868567</v>
+        <v>1.022658602065352</v>
       </c>
       <c r="K22">
-        <v>1.034694765243035</v>
+        <v>1.034018179639197</v>
       </c>
       <c r="L22">
-        <v>1.026840690499261</v>
+        <v>1.026431622264991</v>
       </c>
       <c r="M22">
-        <v>1.038098528216405</v>
+        <v>1.037629007900838</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038724817782537</v>
+        <v>1.038353222918611</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035670883990347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035208023653863</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021559566026073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9936570046801472</v>
+        <v>0.993117037216441</v>
       </c>
       <c r="D23">
-        <v>1.020593355707911</v>
+        <v>1.019830986463305</v>
       </c>
       <c r="E23">
-        <v>1.012728825779209</v>
+        <v>1.012261912621315</v>
       </c>
       <c r="F23">
-        <v>1.024138083451543</v>
+        <v>1.023608039682789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049013794426864</v>
+        <v>1.048628376576814</v>
       </c>
       <c r="J23">
-        <v>1.024011854729415</v>
+        <v>1.02349543141498</v>
       </c>
       <c r="K23">
-        <v>1.035463973741116</v>
+        <v>1.034715605444875</v>
       </c>
       <c r="L23">
-        <v>1.027745198632784</v>
+        <v>1.027287031857995</v>
       </c>
       <c r="M23">
-        <v>1.038943958604129</v>
+        <v>1.038423558746513</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039393920590844</v>
+        <v>1.038982058243852</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036205131014008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035690567754499</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021710571751043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9999585862844801</v>
+        <v>0.9992077201341384</v>
       </c>
       <c r="D24">
-        <v>1.024835327555667</v>
+        <v>1.023793648880933</v>
       </c>
       <c r="E24">
-        <v>1.017524683303721</v>
+        <v>1.016867046476633</v>
       </c>
       <c r="F24">
-        <v>1.028678473451442</v>
+        <v>1.027950815710969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050538682516767</v>
+        <v>1.05001130962214</v>
       </c>
       <c r="J24">
-        <v>1.027458230487882</v>
+        <v>1.026736302368565</v>
       </c>
       <c r="K24">
-        <v>1.038439906043295</v>
+        <v>1.037415419925484</v>
       </c>
       <c r="L24">
-        <v>1.031250879914058</v>
+        <v>1.030604293922783</v>
       </c>
       <c r="M24">
-        <v>1.042220009202578</v>
+        <v>1.041504241414781</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041986694306046</v>
+        <v>1.041420213036537</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038301765400091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037591207787619</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022291666552652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007021362601134</v>
+        <v>1.006039575533277</v>
       </c>
       <c r="D25">
-        <v>1.029602132495484</v>
+        <v>1.028250912800007</v>
       </c>
       <c r="E25">
-        <v>1.022931897665342</v>
+        <v>1.022064459711519</v>
       </c>
       <c r="F25">
-        <v>1.033799604965994</v>
+        <v>1.032853908082545</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052188911029614</v>
+        <v>1.051503670168287</v>
       </c>
       <c r="J25">
-        <v>1.03131471854805</v>
+        <v>1.030365379479324</v>
       </c>
       <c r="K25">
-        <v>1.041757658197859</v>
+        <v>1.040425946212713</v>
       </c>
       <c r="L25">
-        <v>1.035184357803129</v>
+        <v>1.034329643816843</v>
       </c>
       <c r="M25">
-        <v>1.045894942886257</v>
+        <v>1.044962752363388</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044895146121197</v>
+        <v>1.044157383914806</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040644716243662</v>
+        <v>1.039716622135432</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022928616291457</v>
       </c>
     </row>
   </sheetData>
